--- a/output/product1_amazon.xlsx
+++ b/output/product1_amazon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,299 +474,325 @@
           <t>Imagen</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Precio_Num</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>7th Sector - LIMITED (PlayStation 4)</t>
+          <t>Apple iPhone 15 (128 GB) - Negro</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B0CK4RPY57</t>
+          <t>B0CHWV5HTM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sin Información</t>
+          <t>959,00 €</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sin Información</t>
+          <t>959,00 €</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5,0 de 5 estrellas</t>
+          <t>4,4 de 5 estrellas</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1.148</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3NDE1NjExMzQ5MzkwNjY6MTcwOTc3MTU3NzpzcF9hdGY6MzAwMDc0MzY0NTU5MDMyOjowOjo&amp;url=%2F7th-Sector-LIMITED-PlayStation-4%2Fdp%2FB0CK4RPY57%2Fref%3Dsr_1_1%3Fdib%3DeyJ2IjoiMSJ9.7Q3T5g7x5zzVcAbiT7yc8ucCX3i6JVsUieGyp7XCWLq8LxW8sFv-BTf56b5D0R7IQ3BXyjlYoVqfaq54bJIW4urVFNoBQ9SUyt9hjqSOgwQ0V_qTOPqt9sXN6Ajx4un5yjJDjpDweo9-U7ku59W49_JOMvPGtjIARrgncjkR3oaqUocT05FektS5Fwpgxss_NeaAOFlpHt1g1tKalce5w0RKSLT-ln-2hJIgiyxnoIEEfOhEaUtLl4S7Z8_YqdGdCRqVJx4-3YI9BLuhBPb6xbfhHmaCZTGl93offtW9kJY.a9X40-M0gigIiOdjI8GbmDk2U7pSS2CVG8n4yiubqiY%26dib_tag%3Dse%26keywords%3Dplaystation%2B4%26qid%3D1709771577%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyNjQ1NzY4NjcxNTEzMDY2OjE3MDk4MDkzOTI6c3BfYXRmOjMwMDA1NDUyODEwMDUzMjo6MDo6&amp;url=%2FApple-iPhone-15-128-GB%2Fdp%2FB0CHWV5HTM%2Fref%3Dsr_1_1%3Fdib%3DeyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYO6XiNuNiMfMo3MgAl0JHPxyMDXYBd68vvKo_kR69ECcoZZvWT0jt8gNv7tTYBfdanpMWsshH__LeGMRtB9Y6I0AgnSW-H6Oi0IkLwC0fNCbCFWcFZv7tAZN-GjsSV0a5VXjC4gr5iGHqTLPXjn_mz5yk0rSKKvYTbClB6SS5vDj0reTfPP1ayseDlDN8Selc5mITKXwReMSf01wXLV0yQn8xMmCad6vVUlf5nN0V7J74H9VZX1dF72D1uFYffAxj9-RZc5t1CwTIrlmQphw5Cbs.bGEg2l42kp8Pj8RATVydjHun6TxmJ8W9nc136XSzkvo%26dib_tag%3Dse%26keywords%3Diphone%2B15%26qid%3D1709809392%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51rYOmLwRyL._AC_UL320_.jpg</t>
-        </is>
+          <t>https://m.media-amazon.com/images/I/61eEYLATF9L._AC_UL320_.jpg</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>959</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sony Playstation 4 (PS4) - Consola 500 Gb + 2 Mandos Dual Shock 4 (Edición Exclusiva Amazon)</t>
+          <t>Apple iPhone 15 (128 GB) - Negro</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B07KBLNZB1</t>
+          <t>B0CHWV5HTM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sin Información</t>
+          <t>959,00 €</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sin Información</t>
+          <t>959,00 €</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4,6 de 5 estrellas</t>
+          <t>4,4 de 5 estrellas</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.034</t>
+          <t>1.148</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Playstation-PS4-Consola-Edici%C3%B3n-Exclusiva/dp/B07KBLNZB1/ref=sr_1_2?dib=eyJ2IjoiMSJ9.7Q3T5g7x5zzVcAbiT7yc8ucCX3i6JVsUieGyp7XCWLq8LxW8sFv-BTf56b5D0R7IQ3BXyjlYoVqfaq54bJIW4urVFNoBQ9SUyt9hjqSOgwQ0V_qTOPqt9sXN6Ajx4un5yjJDjpDweo9-U7ku59W49_JOMvPGtjIARrgncjkR3oaqUocT05FektS5Fwpgxss_NeaAOFlpHt1g1tKalce5w0RKSLT-ln-2hJIgiyxnoIEEfOhEaUtLl4S7Z8_YqdGdCRqVJx4-3YI9BLuhBPb6xbfhHmaCZTGl93offtW9kJY.a9X40-M0gigIiOdjI8GbmDk2U7pSS2CVG8n4yiubqiY&amp;dib_tag=se&amp;keywords=playstation+4&amp;qid=1709771577&amp;sr=8-2</t>
+          <t>https://www.amazon.com/Apple-iPhone-15-128-GB/dp/B0CHWV5HTM/ref=sr_1_5?dib=eyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYO6XiNuNiMfMo3MgAl0JHPxyMDXYBd68vvKo_kR69ECcoZZvWT0jt8gNv7tTYBfdanpMWsshH__LeGMRtB9Y6I0AgnSW-H6Oi0IkLwC0fNCbCFWcFZv7tAZN-GjsSV0a5VXjC4gr5iGHqTLPXjn_mz5yk0rSKKvYTbClB6SS5vDj0reTfPP1ayseDlDN8Selc5mITKXwReMSf01wXLV0yQn8xMmCad6vVUlf5nN0V7J74H9VZX1dF72D1uFYffAxj9-RZc5t1CwTIrlmQphw5Cbs.bGEg2l42kp8Pj8RATVydjHun6TxmJ8W9nc136XSzkvo&amp;dib_tag=se&amp;keywords=iphone+15&amp;qid=1709809392&amp;sr=8-5</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81kWdfvs9lL._AC_UL320_.jpg</t>
-        </is>
+          <t>https://m.media-amazon.com/images/I/61eEYLATF9L._AC_UL320_.jpg</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>959</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sony PS4 Slim 1TB Negro 1000 GB Wifi - Videoconsolas (PlayStation 4, Negro, 8192 MB, GDDR5, AMD Jaguar)</t>
+          <t>Apple iPhone 15 (128 GB) - Schwarz</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B07KMV94JF</t>
+          <t>B0CHXFCYCR</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sin Información</t>
+          <t>884,52 €</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sin Información</t>
+          <t>884,52 €</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4,2 de 5 estrellas</t>
+          <t>4,5 de 5 estrellas</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.742</t>
+          <t>529</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Sony-Slim-Negro-1000-Wifi/dp/B07KMV94JF/ref=sr_1_3?dib=eyJ2IjoiMSJ9.7Q3T5g7x5zzVcAbiT7yc8ucCX3i6JVsUieGyp7XCWLq8LxW8sFv-BTf56b5D0R7IQ3BXyjlYoVqfaq54bJIW4urVFNoBQ9SUyt9hjqSOgwQ0V_qTOPqt9sXN6Ajx4un5yjJDjpDweo9-U7ku59W49_JOMvPGtjIARrgncjkR3oaqUocT05FektS5Fwpgxss_NeaAOFlpHt1g1tKalce5w0RKSLT-ln-2hJIgiyxnoIEEfOhEaUtLl4S7Z8_YqdGdCRqVJx4-3YI9BLuhBPb6xbfhHmaCZTGl93offtW9kJY.a9X40-M0gigIiOdjI8GbmDk2U7pSS2CVG8n4yiubqiY&amp;dib_tag=se&amp;keywords=playstation+4&amp;qid=1709771577&amp;sr=8-3</t>
+          <t>https://www.amazon.com/Apple-iPhone-15-128-GB/dp/B0CHXFCYCR/ref=sr_1_6?dib=eyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYO6XiNuNiMfMo3MgAl0JHPxyMDXYBd68vvKo_kR69ECcoZZvWT0jt8gNv7tTYBfdanpMWsshH__LeGMRtB9Y6I0AgnSW-H6Oi0IkLwC0fNCbCFWcFZv7tAZN-GjsSV0a5VXjC4gr5iGHqTLPXjn_mz5yk0rSKKvYTbClB6SS5vDj0reTfPP1ayseDlDN8Selc5mITKXwReMSf01wXLV0yQn8xMmCad6vVUlf5nN0V7J74H9VZX1dF72D1uFYffAxj9-RZc5t1CwTIrlmQphw5Cbs.bGEg2l42kp8Pj8RATVydjHun6TxmJ8W9nc136XSzkvo&amp;dib_tag=se&amp;keywords=iphone+15&amp;qid=1709809392&amp;sr=8-6</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71w1N5tjy7L._AC_UL320_.jpg</t>
-        </is>
+          <t>https://m.media-amazon.com/images/I/41AIsGLa9HL._AC_UL320_.jpg</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>884</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Playstation 4 Consola versión Slim (PS4)| Capacidad 500GB | Chasis tipo F | Color negro</t>
+          <t>Apple iPhone 14 (128 GB) - (Product) Red</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B07HGBNWTY</t>
+          <t>B0BDKBQ158</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sin Información</t>
+          <t>859,00 €</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sin Información</t>
+          <t>859,00 €</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4,4 de 5 estrellas</t>
+          <t>4,6 de 5 estrellas</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.052</t>
+          <t>5.014</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Playstation-Ps4-Consola-Slim-500/dp/B07HGBNWTY/ref=sr_1_4?dib=eyJ2IjoiMSJ9.7Q3T5g7x5zzVcAbiT7yc8ucCX3i6JVsUieGyp7XCWLq8LxW8sFv-BTf56b5D0R7IQ3BXyjlYoVqfaq54bJIW4urVFNoBQ9SUyt9hjqSOgwQ0V_qTOPqt9sXN6Ajx4un5yjJDjpDweo9-U7ku59W49_JOMvPGtjIARrgncjkR3oaqUocT05FektS5Fwpgxss_NeaAOFlpHt1g1tKalce5w0RKSLT-ln-2hJIgiyxnoIEEfOhEaUtLl4S7Z8_YqdGdCRqVJx4-3YI9BLuhBPb6xbfhHmaCZTGl93offtW9kJY.a9X40-M0gigIiOdjI8GbmDk2U7pSS2CVG8n4yiubqiY&amp;dib_tag=se&amp;keywords=playstation+4&amp;qid=1709771577&amp;sr=8-4</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyNjQ1NzY4NjcxNTEzMDY2OjE3MDk4MDkzOTI6c3BfYXRmOjIwMDc2NjQ4MDYwNjk4OjowOjo&amp;url=%2FApple-iPhone-14-128-GB%2Fdp%2FB0BDKBQ158%2Fref%3Dsr_1_4%3Fdib%3DeyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYO6XiNuNiMfMo3MgAl0JHPxyMDXYBd68vvKo_kR69ECcoZZvWT0jt8gNv7tTYBfdanpMWsshH__LeGMRtB9Y6I0AgnSW-H6Oi0IkLwC0fNCbCFWcFZv7tAZN-GjsSV0a5VXjC4gr5iGHqTLPXjn_mz5yk0rSKKvYTbClB6SS5vDj0reTfPP1ayseDlDN8Selc5mITKXwReMSf01wXLV0yQn8xMmCad6vVUlf5nN0V7J74H9VZX1dF72D1uFYffAxj9-RZc5t1CwTIrlmQphw5Cbs.bGEg2l42kp8Pj8RATVydjHun6TxmJ8W9nc136XSzkvo%26dib_tag%3Dse%26keywords%3Diphone%2B15%26qid%3D1709809392%26sr%3D8-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/31JlW2LdlpL._AC_UL320_.jpg</t>
-        </is>
+          <t>https://m.media-amazon.com/images/I/611mRs-imxL._AC_UL320_.jpg</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>859</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PlayStation 4 Slim (PS4) - Consola de 500 GB</t>
+          <t>Apple iPhone 15 Pro (256 GB) - Titanio Natural</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B01LQF9RDI</t>
+          <t>B0CHWYHBCZ</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sin Información</t>
+          <t>1.349,00 €</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sin Información</t>
+          <t>1.349,00 €</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4,5 de 5 estrellas</t>
+          <t>4,4 de 5 estrellas</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.712</t>
+          <t>1.198</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/PlayStation-Slim-PS4-Consola-500/dp/B01LQF9RDI/ref=sr_1_5?dib=eyJ2IjoiMSJ9.7Q3T5g7x5zzVcAbiT7yc8ucCX3i6JVsUieGyp7XCWLq8LxW8sFv-BTf56b5D0R7IQ3BXyjlYoVqfaq54bJIW4urVFNoBQ9SUyt9hjqSOgwQ0V_qTOPqt9sXN6Ajx4un5yjJDjpDweo9-U7ku59W49_JOMvPGtjIARrgncjkR3oaqUocT05FektS5Fwpgxss_NeaAOFlpHt1g1tKalce5w0RKSLT-ln-2hJIgiyxnoIEEfOhEaUtLl4S7Z8_YqdGdCRqVJx4-3YI9BLuhBPb6xbfhHmaCZTGl93offtW9kJY.a9X40-M0gigIiOdjI8GbmDk2U7pSS2CVG8n4yiubqiY&amp;dib_tag=se&amp;keywords=playstation+4&amp;qid=1709771577&amp;sr=8-5</t>
+          <t>https://www.amazon.com/Apple-iPhone-15-Pro-256/dp/B0CHWYHBCZ/ref=sr_1_7?dib=eyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYO6XiNuNiMfMo3MgAl0JHPxyMDXYBd68vvKo_kR69ECcoZZvWT0jt8gNv7tTYBfdanpMWsshH__LeGMRtB9Y6I0AgnSW-H6Oi0IkLwC0fNCbCFWcFZv7tAZN-GjsSV0a5VXjC4gr5iGHqTLPXjn_mz5yk0rSKKvYTbClB6SS5vDj0reTfPP1ayseDlDN8Selc5mITKXwReMSf01wXLV0yQn8xMmCad6vVUlf5nN0V7J74H9VZX1dF72D1uFYffAxj9-RZc5t1CwTIrlmQphw5Cbs.bGEg2l42kp8Pj8RATVydjHun6TxmJ8W9nc136XSzkvo&amp;dib_tag=se&amp;keywords=iphone+15&amp;qid=1709809392&amp;sr=8-7</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51x2uufH6SL._AC_UL320_.jpg</t>
-        </is>
+          <t>https://m.media-amazon.com/images/I/81Wwngkh2OL._AC_UL320_.jpg</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>1.349</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sony PlayStation 4 Slim (PS4) - Consola de 500 GB</t>
+          <t>Apple iPhone 15 Pro (128 GB) - Titanio Negro</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B076DHYRGP</t>
+          <t>B0CHX426VG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sin Información</t>
+          <t>1.219,00 €</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sin Información</t>
+          <t>1.219,00 €</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4,3 de 5 estrellas</t>
+          <t>4,4 de 5 estrellas</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>1.198</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/PlayStation-Slim-PS4-Consola-500/dp/B076DHYRGP/ref=sr_1_6?dib=eyJ2IjoiMSJ9.7Q3T5g7x5zzVcAbiT7yc8ucCX3i6JVsUieGyp7XCWLq8LxW8sFv-BTf56b5D0R7IQ3BXyjlYoVqfaq54bJIW4urVFNoBQ9SUyt9hjqSOgwQ0V_qTOPqt9sXN6Ajx4un5yjJDjpDweo9-U7ku59W49_JOMvPGtjIARrgncjkR3oaqUocT05FektS5Fwpgxss_NeaAOFlpHt1g1tKalce5w0RKSLT-ln-2hJIgiyxnoIEEfOhEaUtLl4S7Z8_YqdGdCRqVJx4-3YI9BLuhBPb6xbfhHmaCZTGl93offtW9kJY.a9X40-M0gigIiOdjI8GbmDk2U7pSS2CVG8n4yiubqiY&amp;dib_tag=se&amp;keywords=playstation+4&amp;qid=1709771577&amp;sr=8-6</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyNjQ1NzY4NjcxNTEzMDY2OjE3MDk4MDkzOTI6c3BfYXRmOjMwMDA1NDUyODEwMTkzMjo6MDo6&amp;url=%2FApple-iPhone-15-Pro-128%2Fdp%2FB0CHX426VG%2Fref%3Dsr_1_2%3Fdib%3DeyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYO6XiNuNiMfMo3MgAl0JHPxyMDXYBd68vvKo_kR69ECcoZZvWT0jt8gNv7tTYBfdanpMWsshH__LeGMRtB9Y6I0AgnSW-H6Oi0IkLwC0fNCbCFWcFZv7tAZN-GjsSV0a5VXjC4gr5iGHqTLPXjn_mz5yk0rSKKvYTbClB6SS5vDj0reTfPP1ayseDlDN8Selc5mITKXwReMSf01wXLV0yQn8xMmCad6vVUlf5nN0V7J74H9VZX1dF72D1uFYffAxj9-RZc5t1CwTIrlmQphw5Cbs.bGEg2l42kp8Pj8RATVydjHun6TxmJ8W9nc136XSzkvo%26dib_tag%3Dse%26keywords%3Diphone%2B15%26qid%3D1709809392%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71iKdXqlx2L._AC_UL320_.jpg</t>
-        </is>
+          <t>https://m.media-amazon.com/images/I/812oGW3LDdL._AC_UL320_.jpg</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>1.219</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EA SPORTS FC 24 Standard Edition PS4 | Videojuegos | Castellano</t>
+          <t>Apple iPhone 15 Plus (128 GB) - Negro</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B0CB6VXYDQ</t>
+          <t>B0CHXF5WL4</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>79,99 €</t>
+          <t>1.109,00 €</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>79,99 €</t>
+          <t>1.109,00 €</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4,8 de 5 estrellas</t>
+          <t>4,6 de 5 estrellas</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>255</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/SPORTS-Standard-PS4-Videojuegos-Castellano/dp/B0CB6VXYDQ/ref=sr_1_7?dib=eyJ2IjoiMSJ9.7Q3T5g7x5zzVcAbiT7yc8ucCX3i6JVsUieGyp7XCWLq8LxW8sFv-BTf56b5D0R7IQ3BXyjlYoVqfaq54bJIW4urVFNoBQ9SUyt9hjqSOgwQ0V_qTOPqt9sXN6Ajx4un5yjJDjpDweo9-U7ku59W49_JOMvPGtjIARrgncjkR3oaqUocT05FektS5Fwpgxss_NeaAOFlpHt1g1tKalce5w0RKSLT-ln-2hJIgiyxnoIEEfOhEaUtLl4S7Z8_YqdGdCRqVJx4-3YI9BLuhBPb6xbfhHmaCZTGl93offtW9kJY.a9X40-M0gigIiOdjI8GbmDk2U7pSS2CVG8n4yiubqiY&amp;dib_tag=se&amp;keywords=playstation+4&amp;qid=1709771577&amp;sr=8-7</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyNjQ1NzY4NjcxNTEzMDY2OjE3MDk4MDkzOTI6c3BfYXRmOjMwMDA1NDUyODEwMzMzMjo6MDo6&amp;url=%2FApple-iPhone-15-Plus-128%2Fdp%2FB0CHXF5WL4%2Fref%3Dsr_1_3%3Fdib%3DeyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYO6XiNuNiMfMo3MgAl0JHPxyMDXYBd68vvKo_kR69ECcoZZvWT0jt8gNv7tTYBfdanpMWsshH__LeGMRtB9Y6I0AgnSW-H6Oi0IkLwC0fNCbCFWcFZv7tAZN-GjsSV0a5VXjC4gr5iGHqTLPXjn_mz5yk0rSKKvYTbClB6SS5vDj0reTfPP1ayseDlDN8Selc5mITKXwReMSf01wXLV0yQn8xMmCad6vVUlf5nN0V7J74H9VZX1dF72D1uFYffAxj9-RZc5t1CwTIrlmQphw5Cbs.bGEg2l42kp8Pj8RATVydjHun6TxmJ8W9nc136XSzkvo%26dib_tag%3Dse%26keywords%3Diphone%2B15%26qid%3D1709809392%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71Ybe66rz0L._AC_UL320_.jpg</t>
-        </is>
+          <t>https://m.media-amazon.com/images/I/713xdJGERML._AC_UL320_.jpg</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>1.109</v>
       </c>
     </row>
   </sheetData>

--- a/output/product1_amazon.xlsx
+++ b/output/product1_amazon.xlsx
@@ -483,12 +483,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 (128 GB) - Negro</t>
+          <t>Apple iPhone 14 Plus (128 GB) - (Product) Red</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B0CHWV5HTM</t>
+          <t>B0BDJW51NW</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -503,22 +503,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4,4 de 5 estrellas</t>
+          <t>4,6 de 5 estrellas</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.148</t>
+          <t>1.461</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyNjQ1NzY4NjcxNTEzMDY2OjE3MDk4MDkzOTI6c3BfYXRmOjMwMDA1NDUyODEwMDUzMjo6MDo6&amp;url=%2FApple-iPhone-15-128-GB%2Fdp%2FB0CHWV5HTM%2Fref%3Dsr_1_1%3Fdib%3DeyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYO6XiNuNiMfMo3MgAl0JHPxyMDXYBd68vvKo_kR69ECcoZZvWT0jt8gNv7tTYBfdanpMWsshH__LeGMRtB9Y6I0AgnSW-H6Oi0IkLwC0fNCbCFWcFZv7tAZN-GjsSV0a5VXjC4gr5iGHqTLPXjn_mz5yk0rSKKvYTbClB6SS5vDj0reTfPP1ayseDlDN8Selc5mITKXwReMSf01wXLV0yQn8xMmCad6vVUlf5nN0V7J74H9VZX1dF72D1uFYffAxj9-RZc5t1CwTIrlmQphw5Cbs.bGEg2l42kp8Pj8RATVydjHun6TxmJ8W9nc136XSzkvo%26dib_tag%3Dse%26keywords%3Diphone%2B15%26qid%3D1709809392%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NzgxOTM5NTQ2NzU5MDY2OjE3MDk4MTE2MTM6c3BfYXRmOjIwMDk2NDU2OTg0ODk4OjowOjo&amp;url=%2FApple-iPhone-14-Plus-128%2Fdp%2FB0BDJW51NW%2Fref%3Dsr_1_3%3Fdib%3DeyJ2IjoiMSJ9.BGAktmr72gR9_nUVnthbazT95BOUyL3X2Eqnj0wCcJgLNekmp5O9atWJcflKPG35yBqHAGiqiJJz6QrGpL6lYBnGNSN1q1wS9pMXmX6YqFPHTPcwSfY_BomOZv8S4HugB74aJOYDxgZKeP54_LNg7ivTkEBifDkaVHTJK04IappM5l9ODkjYRiDWlsYAM6gd1aZQyy-AIv67URPbzz_WakPbDOUq565Yr9bQmuKTRH9Dc2QaOmoaxnEZJR7RyhrbGFq6NJlEe_eZdoYKmKffoOPfDUIdFIF9qfMRqGYLjXw.d-TAW6POXdaLp7rtkYhTDZkx1eCzRumO0WdnUx2mSlE%26dib_tag%3Dse%26keywords%3Diphone%2B14%26qid%3D1709811613%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61eEYLATF9L._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/716fAVud8PL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -558,7 +558,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Apple-iPhone-15-128-GB/dp/B0CHWV5HTM/ref=sr_1_5?dib=eyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYO6XiNuNiMfMo3MgAl0JHPxyMDXYBd68vvKo_kR69ECcoZZvWT0jt8gNv7tTYBfdanpMWsshH__LeGMRtB9Y6I0AgnSW-H6Oi0IkLwC0fNCbCFWcFZv7tAZN-GjsSV0a5VXjC4gr5iGHqTLPXjn_mz5yk0rSKKvYTbClB6SS5vDj0reTfPP1ayseDlDN8Selc5mITKXwReMSf01wXLV0yQn8xMmCad6vVUlf5nN0V7J74H9VZX1dF72D1uFYffAxj9-RZc5t1CwTIrlmQphw5Cbs.bGEg2l42kp8Pj8RATVydjHun6TxmJ8W9nc136XSzkvo&amp;dib_tag=se&amp;keywords=iphone+15&amp;qid=1709809392&amp;sr=8-5</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NzgxOTM5NTQ2NzU5MDY2OjE3MDk4MTE2MTM6c3BfYXRmOjMwMDA1NDUyODEwMDUzMjo6MDo6&amp;url=%2FApple-iPhone-15-128-GB%2Fdp%2FB0CHWV5HTM%2Fref%3Dsr_1_4%3Fdib%3DeyJ2IjoiMSJ9.BGAktmr72gR9_nUVnthbazT95BOUyL3X2Eqnj0wCcJgLNekmp5O9atWJcflKPG35yBqHAGiqiJJz6QrGpL6lYBnGNSN1q1wS9pMXmX6YqFPHTPcwSfY_BomOZv8S4HugB74aJOYDxgZKeP54_LNg7ivTkEBifDkaVHTJK04IappM5l9ODkjYRiDWlsYAM6gd1aZQyy-AIv67URPbzz_WakPbDOUq565Yr9bQmuKTRH9Dc2QaOmoaxnEZJR7RyhrbGFq6NJlEe_eZdoYKmKffoOPfDUIdFIF9qfMRqGYLjXw.d-TAW6POXdaLp7rtkYhTDZkx1eCzRumO0WdnUx2mSlE%26dib_tag%3Dse%26keywords%3Diphone%2B14%26qid%3D1709811613%26sr%3D8-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -573,57 +573,57 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 (128 GB) - Schwarz</t>
+          <t>Apple iPhone 14 (128 GB) - Malva</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B0CHXFCYCR</t>
+          <t>B0BDJZLSDH</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>884,52 €</t>
+          <t>859,00 €</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>884,52 €</t>
+          <t>859,00 €</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4,5 de 5 estrellas</t>
+          <t>4,6 de 5 estrellas</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>5.014</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Apple-iPhone-15-128-GB/dp/B0CHXFCYCR/ref=sr_1_6?dib=eyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYO6XiNuNiMfMo3MgAl0JHPxyMDXYBd68vvKo_kR69ECcoZZvWT0jt8gNv7tTYBfdanpMWsshH__LeGMRtB9Y6I0AgnSW-H6Oi0IkLwC0fNCbCFWcFZv7tAZN-GjsSV0a5VXjC4gr5iGHqTLPXjn_mz5yk0rSKKvYTbClB6SS5vDj0reTfPP1ayseDlDN8Selc5mITKXwReMSf01wXLV0yQn8xMmCad6vVUlf5nN0V7J74H9VZX1dF72D1uFYffAxj9-RZc5t1CwTIrlmQphw5Cbs.bGEg2l42kp8Pj8RATVydjHun6TxmJ8W9nc136XSzkvo&amp;dib_tag=se&amp;keywords=iphone+15&amp;qid=1709809392&amp;sr=8-6</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NzgxOTM5NTQ2NzU5MDY2OjE3MDk4MTE2MTM6c3BfYXRmOjIwMDk2NDU2OTgxMTk4OjowOjo&amp;url=%2FApple-iPhone-14-128-GB%2Fdp%2FB0BDJZLSDH%2Fref%3Dsr_1_1%3Fdib%3DeyJ2IjoiMSJ9.BGAktmr72gR9_nUVnthbazT95BOUyL3X2Eqnj0wCcJgLNekmp5O9atWJcflKPG35yBqHAGiqiJJz6QrGpL6lYBnGNSN1q1wS9pMXmX6YqFPHTPcwSfY_BomOZv8S4HugB74aJOYDxgZKeP54_LNg7ivTkEBifDkaVHTJK04IappM5l9ODkjYRiDWlsYAM6gd1aZQyy-AIv67URPbzz_WakPbDOUq565Yr9bQmuKTRH9Dc2QaOmoaxnEZJR7RyhrbGFq6NJlEe_eZdoYKmKffoOPfDUIdFIF9qfMRqGYLjXw.d-TAW6POXdaLp7rtkYhTDZkx1eCzRumO0WdnUx2mSlE%26dib_tag%3Dse%26keywords%3Diphone%2B14%26qid%3D1709811613%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/41AIsGLa9HL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/619f09kK7tL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>884</v>
+        <v>859</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 (128 GB) - (Product) Red</t>
+          <t>Apple iPhone 14 (128 GB) - Negro Noche</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B0BDKBQ158</t>
+          <t>B0BDKBLF8C</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -648,12 +648,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyNjQ1NzY4NjcxNTEzMDY2OjE3MDk4MDkzOTI6c3BfYXRmOjIwMDc2NjQ4MDYwNjk4OjowOjo&amp;url=%2FApple-iPhone-14-128-GB%2Fdp%2FB0BDKBQ158%2Fref%3Dsr_1_4%3Fdib%3DeyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYO6XiNuNiMfMo3MgAl0JHPxyMDXYBd68vvKo_kR69ECcoZZvWT0jt8gNv7tTYBfdanpMWsshH__LeGMRtB9Y6I0AgnSW-H6Oi0IkLwC0fNCbCFWcFZv7tAZN-GjsSV0a5VXjC4gr5iGHqTLPXjn_mz5yk0rSKKvYTbClB6SS5vDj0reTfPP1ayseDlDN8Selc5mITKXwReMSf01wXLV0yQn8xMmCad6vVUlf5nN0V7J74H9VZX1dF72D1uFYffAxj9-RZc5t1CwTIrlmQphw5Cbs.bGEg2l42kp8Pj8RATVydjHun6TxmJ8W9nc136XSzkvo%26dib_tag%3Dse%26keywords%3Diphone%2B15%26qid%3D1709809392%26sr%3D8-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/Apple-iPhone-14-128-GB/dp/B0BDKBLF8C/ref=sr_1_5?dib=eyJ2IjoiMSJ9.BGAktmr72gR9_nUVnthbazT95BOUyL3X2Eqnj0wCcJgLNekmp5O9atWJcflKPG35yBqHAGiqiJJz6QrGpL6lYBnGNSN1q1wS9pMXmX6YqFPHTPcwSfY_BomOZv8S4HugB74aJOYDxgZKeP54_LNg7ivTkEBifDkaVHTJK04IappM5l9ODkjYRiDWlsYAM6gd1aZQyy-AIv67URPbzz_WakPbDOUq565Yr9bQmuKTRH9Dc2QaOmoaxnEZJR7RyhrbGFq6NJlEe_eZdoYKmKffoOPfDUIdFIF9qfMRqGYLjXw.d-TAW6POXdaLp7rtkYhTDZkx1eCzRumO0WdnUx2mSlE&amp;dib_tag=se&amp;keywords=iphone+14&amp;qid=1709811613&amp;sr=8-5</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/611mRs-imxL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61cwywLZR-L._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -663,136 +663,136 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 Pro (256 GB) - Titanio Natural</t>
+          <t>Apple iPhone 13 (128 GB) - Azul</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B0CHWYHBCZ</t>
+          <t>B09G9DMQ7M</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.349,00 €</t>
+          <t>739,00 €</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.349,00 €</t>
+          <t>739,00 €</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4,4 de 5 estrellas</t>
+          <t>4,7 de 5 estrellas</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.198</t>
+          <t>10.558</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Apple-iPhone-15-Pro-256/dp/B0CHWYHBCZ/ref=sr_1_7?dib=eyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYO6XiNuNiMfMo3MgAl0JHPxyMDXYBd68vvKo_kR69ECcoZZvWT0jt8gNv7tTYBfdanpMWsshH__LeGMRtB9Y6I0AgnSW-H6Oi0IkLwC0fNCbCFWcFZv7tAZN-GjsSV0a5VXjC4gr5iGHqTLPXjn_mz5yk0rSKKvYTbClB6SS5vDj0reTfPP1ayseDlDN8Selc5mITKXwReMSf01wXLV0yQn8xMmCad6vVUlf5nN0V7J74H9VZX1dF72D1uFYffAxj9-RZc5t1CwTIrlmQphw5Cbs.bGEg2l42kp8Pj8RATVydjHun6TxmJ8W9nc136XSzkvo&amp;dib_tag=se&amp;keywords=iphone+15&amp;qid=1709809392&amp;sr=8-7</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NzgxOTM5NTQ2NzU5MDY2OjE3MDk4MTE2MTM6c3BfYXRmOjIwMDg0NjQxOTc0NjA0OjowOjo&amp;url=%2FApple-iPhone-13-128-GB-Azul%2Fdp%2FB09G9DMQ7M%2Fref%3Dsr_1_2%3Fdib%3DeyJ2IjoiMSJ9.BGAktmr72gR9_nUVnthbazT95BOUyL3X2Eqnj0wCcJgLNekmp5O9atWJcflKPG35yBqHAGiqiJJz6QrGpL6lYBnGNSN1q1wS9pMXmX6YqFPHTPcwSfY_BomOZv8S4HugB74aJOYDxgZKeP54_LNg7ivTkEBifDkaVHTJK04IappM5l9ODkjYRiDWlsYAM6gd1aZQyy-AIv67URPbzz_WakPbDOUq565Yr9bQmuKTRH9Dc2QaOmoaxnEZJR7RyhrbGFq6NJlEe_eZdoYKmKffoOPfDUIdFIF9qfMRqGYLjXw.d-TAW6POXdaLp7rtkYhTDZkx1eCzRumO0WdnUx2mSlE%26dib_tag%3Dse%26keywords%3Diphone%2B14%26qid%3D1709811613%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81Wwngkh2OL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71dpTXFz+dL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1.349</v>
+        <v>739</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 Pro (128 GB) - Titanio Negro</t>
+          <t>Apple iPhone 13 (128 GB) - en Medianoche</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B0CHX426VG</t>
+          <t>B09G995PVT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.219,00 €</t>
+          <t>739,00 €</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.219,00 €</t>
+          <t>739,00 €</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4,4 de 5 estrellas</t>
+          <t>4,7 de 5 estrellas</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.198</t>
+          <t>10.558</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyNjQ1NzY4NjcxNTEzMDY2OjE3MDk4MDkzOTI6c3BfYXRmOjMwMDA1NDUyODEwMTkzMjo6MDo6&amp;url=%2FApple-iPhone-15-Pro-128%2Fdp%2FB0CHX426VG%2Fref%3Dsr_1_2%3Fdib%3DeyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYO6XiNuNiMfMo3MgAl0JHPxyMDXYBd68vvKo_kR69ECcoZZvWT0jt8gNv7tTYBfdanpMWsshH__LeGMRtB9Y6I0AgnSW-H6Oi0IkLwC0fNCbCFWcFZv7tAZN-GjsSV0a5VXjC4gr5iGHqTLPXjn_mz5yk0rSKKvYTbClB6SS5vDj0reTfPP1ayseDlDN8Selc5mITKXwReMSf01wXLV0yQn8xMmCad6vVUlf5nN0V7J74H9VZX1dF72D1uFYffAxj9-RZc5t1CwTIrlmQphw5Cbs.bGEg2l42kp8Pj8RATVydjHun6TxmJ8W9nc136XSzkvo%26dib_tag%3Dse%26keywords%3Diphone%2B15%26qid%3D1709809392%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/Apple-iPhone-13-128-GB-en-Medianoche/dp/B09G995PVT/ref=sr_1_7?dib=eyJ2IjoiMSJ9.BGAktmr72gR9_nUVnthbazT95BOUyL3X2Eqnj0wCcJgLNekmp5O9atWJcflKPG35yBqHAGiqiJJz6QrGpL6lYBnGNSN1q1wS9pMXmX6YqFPHTPcwSfY_BomOZv8S4HugB74aJOYDxgZKeP54_LNg7ivTkEBifDkaVHTJK04IappM5l9ODkjYRiDWlsYAM6gd1aZQyy-AIv67URPbzz_WakPbDOUq565Yr9bQmuKTRH9Dc2QaOmoaxnEZJR7RyhrbGFq6NJlEe_eZdoYKmKffoOPfDUIdFIF9qfMRqGYLjXw.d-TAW6POXdaLp7rtkYhTDZkx1eCzRumO0WdnUx2mSlE&amp;dib_tag=se&amp;keywords=iphone+14&amp;qid=1709811613&amp;sr=8-7</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/812oGW3LDdL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/616dWFinzLL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1.219</v>
+        <v>739</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 Plus (128 GB) - Negro</t>
+          <t>iPhone 14 128GB</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B0CHXF5WL4</t>
+          <t>B0BNLXTK3P</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.109,00 €</t>
+          <t>Sin Información</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.109,00 €</t>
+          <t>Sin Información</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4,6 de 5 estrellas</t>
+          <t>3,9 de 5 estrellas</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyNjQ1NzY4NjcxNTEzMDY2OjE3MDk4MDkzOTI6c3BfYXRmOjMwMDA1NDUyODEwMzMzMjo6MDo6&amp;url=%2FApple-iPhone-15-Plus-128%2Fdp%2FB0CHXF5WL4%2Fref%3Dsr_1_3%3Fdib%3DeyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYO6XiNuNiMfMo3MgAl0JHPxyMDXYBd68vvKo_kR69ECcoZZvWT0jt8gNv7tTYBfdanpMWsshH__LeGMRtB9Y6I0AgnSW-H6Oi0IkLwC0fNCbCFWcFZv7tAZN-GjsSV0a5VXjC4gr5iGHqTLPXjn_mz5yk0rSKKvYTbClB6SS5vDj0reTfPP1ayseDlDN8Selc5mITKXwReMSf01wXLV0yQn8xMmCad6vVUlf5nN0V7J74H9VZX1dF72D1uFYffAxj9-RZc5t1CwTIrlmQphw5Cbs.bGEg2l42kp8Pj8RATVydjHun6TxmJ8W9nc136XSzkvo%26dib_tag%3Dse%26keywords%3Diphone%2B15%26qid%3D1709809392%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/Apple-MPUR3ZD-A-iPhone-128GB/dp/B0BNLXTK3P/ref=sr_1_6?dib=eyJ2IjoiMSJ9.BGAktmr72gR9_nUVnthbazT95BOUyL3X2Eqnj0wCcJgLNekmp5O9atWJcflKPG35yBqHAGiqiJJz6QrGpL6lYBnGNSN1q1wS9pMXmX6YqFPHTPcwSfY_BomOZv8S4HugB74aJOYDxgZKeP54_LNg7ivTkEBifDkaVHTJK04IappM5l9ODkjYRiDWlsYAM6gd1aZQyy-AIv67URPbzz_WakPbDOUq565Yr9bQmuKTRH9Dc2QaOmoaxnEZJR7RyhrbGFq6NJlEe_eZdoYKmKffoOPfDUIdFIF9qfMRqGYLjXw.d-TAW6POXdaLp7rtkYhTDZkx1eCzRumO0WdnUx2mSlE&amp;dib_tag=se&amp;keywords=iphone+14&amp;qid=1709811613&amp;sr=8-6</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/713xdJGERML._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51+SLoh3kzL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1.109</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/product1_amazon.xlsx
+++ b/output/product1_amazon.xlsx
@@ -513,7 +513,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NzgxOTM5NTQ2NzU5MDY2OjE3MDk4MTE2MTM6c3BfYXRmOjIwMDk2NDU2OTg0ODk4OjowOjo&amp;url=%2FApple-iPhone-14-Plus-128%2Fdp%2FB0BDJW51NW%2Fref%3Dsr_1_3%3Fdib%3DeyJ2IjoiMSJ9.BGAktmr72gR9_nUVnthbazT95BOUyL3X2Eqnj0wCcJgLNekmp5O9atWJcflKPG35yBqHAGiqiJJz6QrGpL6lYBnGNSN1q1wS9pMXmX6YqFPHTPcwSfY_BomOZv8S4HugB74aJOYDxgZKeP54_LNg7ivTkEBifDkaVHTJK04IappM5l9ODkjYRiDWlsYAM6gd1aZQyy-AIv67URPbzz_WakPbDOUq565Yr9bQmuKTRH9Dc2QaOmoaxnEZJR7RyhrbGFq6NJlEe_eZdoYKmKffoOPfDUIdFIF9qfMRqGYLjXw.d-TAW6POXdaLp7rtkYhTDZkx1eCzRumO0WdnUx2mSlE%26dib_tag%3Dse%26keywords%3Diphone%2B14%26qid%3D1709811613%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NzIwMDAwNjkxNzE3MDY2OjE3MDk4MTQ5MzA6c3BfYXRmOjIwMDk2NDU2OTg0ODk4OjowOjo&amp;url=%2FApple-iPhone-14-Plus-128%2Fdp%2FB0BDJW51NW%2Fref%3Dsr_1_3%3Fdib%3DeyJ2IjoiMSJ9.BGAktmr72gR9_nUVnthbazT95BOUyL3X2Eqnj0wCcJgLNekmp5O9atWJcflKPG35yBqHAGiqiJJz6QrGpL6lYBnGNSN1q1wS9pMXmX6YqFPHTPcwSfY_BomOZv8S4HugB74aJOYDxgZKeP54_LNg7ivTkEBifDkaVHTJK04IapprJA1PXwL6wsxKLth6hJA65WfXSoJH0eichCsxiCIRAWbwC9doGFnQiwsV5Xn0x5NsQ4QPKTHuLA-mFLDbk4gvfXqVL7mts-Mpi2jjO--vtOPfDUIdFIF9qfMRqGYLjXw.yjfLvo3dsK2X8aRsnATiCfWguiEMfgIq3rBZyHpcfBc%26dib_tag%3Dse%26keywords%3Diphone%2B14%26qid%3D1709814930%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -558,7 +558,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NzgxOTM5NTQ2NzU5MDY2OjE3MDk4MTE2MTM6c3BfYXRmOjMwMDA1NDUyODEwMDUzMjo6MDo6&amp;url=%2FApple-iPhone-15-128-GB%2Fdp%2FB0CHWV5HTM%2Fref%3Dsr_1_4%3Fdib%3DeyJ2IjoiMSJ9.BGAktmr72gR9_nUVnthbazT95BOUyL3X2Eqnj0wCcJgLNekmp5O9atWJcflKPG35yBqHAGiqiJJz6QrGpL6lYBnGNSN1q1wS9pMXmX6YqFPHTPcwSfY_BomOZv8S4HugB74aJOYDxgZKeP54_LNg7ivTkEBifDkaVHTJK04IappM5l9ODkjYRiDWlsYAM6gd1aZQyy-AIv67URPbzz_WakPbDOUq565Yr9bQmuKTRH9Dc2QaOmoaxnEZJR7RyhrbGFq6NJlEe_eZdoYKmKffoOPfDUIdFIF9qfMRqGYLjXw.d-TAW6POXdaLp7rtkYhTDZkx1eCzRumO0WdnUx2mSlE%26dib_tag%3Dse%26keywords%3Diphone%2B14%26qid%3D1709811613%26sr%3D8-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NzIwMDAwNjkxNzE3MDY2OjE3MDk4MTQ5MzA6c3BfYXRmOjMwMDA1NDUyODEwMDUzMjo6MDo6&amp;url=%2FApple-iPhone-15-128-GB%2Fdp%2FB0CHWV5HTM%2Fref%3Dsr_1_4%3Fdib%3DeyJ2IjoiMSJ9.BGAktmr72gR9_nUVnthbazT95BOUyL3X2Eqnj0wCcJgLNekmp5O9atWJcflKPG35yBqHAGiqiJJz6QrGpL6lYBnGNSN1q1wS9pMXmX6YqFPHTPcwSfY_BomOZv8S4HugB74aJOYDxgZKeP54_LNg7ivTkEBifDkaVHTJK04IapprJA1PXwL6wsxKLth6hJA65WfXSoJH0eichCsxiCIRAWbwC9doGFnQiwsV5Xn0x5NsQ4QPKTHuLA-mFLDbk4gvfXqVL7mts-Mpi2jjO--vtOPfDUIdFIF9qfMRqGYLjXw.yjfLvo3dsK2X8aRsnATiCfWguiEMfgIq3rBZyHpcfBc%26dib_tag%3Dse%26keywords%3Diphone%2B14%26qid%3D1709814930%26sr%3D8-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NzgxOTM5NTQ2NzU5MDY2OjE3MDk4MTE2MTM6c3BfYXRmOjIwMDk2NDU2OTgxMTk4OjowOjo&amp;url=%2FApple-iPhone-14-128-GB%2Fdp%2FB0BDJZLSDH%2Fref%3Dsr_1_1%3Fdib%3DeyJ2IjoiMSJ9.BGAktmr72gR9_nUVnthbazT95BOUyL3X2Eqnj0wCcJgLNekmp5O9atWJcflKPG35yBqHAGiqiJJz6QrGpL6lYBnGNSN1q1wS9pMXmX6YqFPHTPcwSfY_BomOZv8S4HugB74aJOYDxgZKeP54_LNg7ivTkEBifDkaVHTJK04IappM5l9ODkjYRiDWlsYAM6gd1aZQyy-AIv67URPbzz_WakPbDOUq565Yr9bQmuKTRH9Dc2QaOmoaxnEZJR7RyhrbGFq6NJlEe_eZdoYKmKffoOPfDUIdFIF9qfMRqGYLjXw.d-TAW6POXdaLp7rtkYhTDZkx1eCzRumO0WdnUx2mSlE%26dib_tag%3Dse%26keywords%3Diphone%2B14%26qid%3D1709811613%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NzIwMDAwNjkxNzE3MDY2OjE3MDk4MTQ5MzA6c3BfYXRmOjIwMDk2NDU2OTgxMTk4OjowOjo&amp;url=%2FApple-iPhone-14-128-GB%2Fdp%2FB0BDJZLSDH%2Fref%3Dsr_1_1%3Fdib%3DeyJ2IjoiMSJ9.BGAktmr72gR9_nUVnthbazT95BOUyL3X2Eqnj0wCcJgLNekmp5O9atWJcflKPG35yBqHAGiqiJJz6QrGpL6lYBnGNSN1q1wS9pMXmX6YqFPHTPcwSfY_BomOZv8S4HugB74aJOYDxgZKeP54_LNg7ivTkEBifDkaVHTJK04IapprJA1PXwL6wsxKLth6hJA65WfXSoJH0eichCsxiCIRAWbwC9doGFnQiwsV5Xn0x5NsQ4QPKTHuLA-mFLDbk4gvfXqVL7mts-Mpi2jjO--vtOPfDUIdFIF9qfMRqGYLjXw.yjfLvo3dsK2X8aRsnATiCfWguiEMfgIq3rBZyHpcfBc%26dib_tag%3Dse%26keywords%3Diphone%2B14%26qid%3D1709814930%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Apple-iPhone-14-128-GB/dp/B0BDKBLF8C/ref=sr_1_5?dib=eyJ2IjoiMSJ9.BGAktmr72gR9_nUVnthbazT95BOUyL3X2Eqnj0wCcJgLNekmp5O9atWJcflKPG35yBqHAGiqiJJz6QrGpL6lYBnGNSN1q1wS9pMXmX6YqFPHTPcwSfY_BomOZv8S4HugB74aJOYDxgZKeP54_LNg7ivTkEBifDkaVHTJK04IappM5l9ODkjYRiDWlsYAM6gd1aZQyy-AIv67URPbzz_WakPbDOUq565Yr9bQmuKTRH9Dc2QaOmoaxnEZJR7RyhrbGFq6NJlEe_eZdoYKmKffoOPfDUIdFIF9qfMRqGYLjXw.d-TAW6POXdaLp7rtkYhTDZkx1eCzRumO0WdnUx2mSlE&amp;dib_tag=se&amp;keywords=iphone+14&amp;qid=1709811613&amp;sr=8-5</t>
+          <t>https://www.amazon.com/Apple-iPhone-14-128-GB/dp/B0BDKBLF8C/ref=sr_1_5?dib=eyJ2IjoiMSJ9.BGAktmr72gR9_nUVnthbazT95BOUyL3X2Eqnj0wCcJgLNekmp5O9atWJcflKPG35yBqHAGiqiJJz6QrGpL6lYBnGNSN1q1wS9pMXmX6YqFPHTPcwSfY_BomOZv8S4HugB74aJOYDxgZKeP54_LNg7ivTkEBifDkaVHTJK04IapprJA1PXwL6wsxKLth6hJA65WfXSoJH0eichCsxiCIRAWbwC9doGFnQiwsV5Xn0x5NsQ4QPKTHuLA-mFLDbk4gvfXqVL7mts-Mpi2jjO--vtOPfDUIdFIF9qfMRqGYLjXw.yjfLvo3dsK2X8aRsnATiCfWguiEMfgIq3rBZyHpcfBc&amp;dib_tag=se&amp;keywords=iphone+14&amp;qid=1709814930&amp;sr=8-5</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NzgxOTM5NTQ2NzU5MDY2OjE3MDk4MTE2MTM6c3BfYXRmOjIwMDg0NjQxOTc0NjA0OjowOjo&amp;url=%2FApple-iPhone-13-128-GB-Azul%2Fdp%2FB09G9DMQ7M%2Fref%3Dsr_1_2%3Fdib%3DeyJ2IjoiMSJ9.BGAktmr72gR9_nUVnthbazT95BOUyL3X2Eqnj0wCcJgLNekmp5O9atWJcflKPG35yBqHAGiqiJJz6QrGpL6lYBnGNSN1q1wS9pMXmX6YqFPHTPcwSfY_BomOZv8S4HugB74aJOYDxgZKeP54_LNg7ivTkEBifDkaVHTJK04IappM5l9ODkjYRiDWlsYAM6gd1aZQyy-AIv67URPbzz_WakPbDOUq565Yr9bQmuKTRH9Dc2QaOmoaxnEZJR7RyhrbGFq6NJlEe_eZdoYKmKffoOPfDUIdFIF9qfMRqGYLjXw.d-TAW6POXdaLp7rtkYhTDZkx1eCzRumO0WdnUx2mSlE%26dib_tag%3Dse%26keywords%3Diphone%2B14%26qid%3D1709811613%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NzIwMDAwNjkxNzE3MDY2OjE3MDk4MTQ5MzA6c3BfYXRmOjIwMDg0NjQxOTc0NjA0OjowOjo&amp;url=%2FApple-iPhone-13-128-GB-Azul%2Fdp%2FB09G9DMQ7M%2Fref%3Dsr_1_2%3Fdib%3DeyJ2IjoiMSJ9.BGAktmr72gR9_nUVnthbazT95BOUyL3X2Eqnj0wCcJgLNekmp5O9atWJcflKPG35yBqHAGiqiJJz6QrGpL6lYBnGNSN1q1wS9pMXmX6YqFPHTPcwSfY_BomOZv8S4HugB74aJOYDxgZKeP54_LNg7ivTkEBifDkaVHTJK04IapprJA1PXwL6wsxKLth6hJA65WfXSoJH0eichCsxiCIRAWbwC9doGFnQiwsV5Xn0x5NsQ4QPKTHuLA-mFLDbk4gvfXqVL7mts-Mpi2jjO--vtOPfDUIdFIF9qfMRqGYLjXw.yjfLvo3dsK2X8aRsnATiCfWguiEMfgIq3rBZyHpcfBc%26dib_tag%3Dse%26keywords%3Diphone%2B14%26qid%3D1709814930%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -738,7 +738,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Apple-iPhone-13-128-GB-en-Medianoche/dp/B09G995PVT/ref=sr_1_7?dib=eyJ2IjoiMSJ9.BGAktmr72gR9_nUVnthbazT95BOUyL3X2Eqnj0wCcJgLNekmp5O9atWJcflKPG35yBqHAGiqiJJz6QrGpL6lYBnGNSN1q1wS9pMXmX6YqFPHTPcwSfY_BomOZv8S4HugB74aJOYDxgZKeP54_LNg7ivTkEBifDkaVHTJK04IappM5l9ODkjYRiDWlsYAM6gd1aZQyy-AIv67URPbzz_WakPbDOUq565Yr9bQmuKTRH9Dc2QaOmoaxnEZJR7RyhrbGFq6NJlEe_eZdoYKmKffoOPfDUIdFIF9qfMRqGYLjXw.d-TAW6POXdaLp7rtkYhTDZkx1eCzRumO0WdnUx2mSlE&amp;dib_tag=se&amp;keywords=iphone+14&amp;qid=1709811613&amp;sr=8-7</t>
+          <t>https://www.amazon.com/Apple-iPhone-13-128-GB-en-Medianoche/dp/B09G995PVT/ref=sr_1_7?dib=eyJ2IjoiMSJ9.BGAktmr72gR9_nUVnthbazT95BOUyL3X2Eqnj0wCcJgLNekmp5O9atWJcflKPG35yBqHAGiqiJJz6QrGpL6lYBnGNSN1q1wS9pMXmX6YqFPHTPcwSfY_BomOZv8S4HugB74aJOYDxgZKeP54_LNg7ivTkEBifDkaVHTJK04IapprJA1PXwL6wsxKLth6hJA65WfXSoJH0eichCsxiCIRAWbwC9doGFnQiwsV5Xn0x5NsQ4QPKTHuLA-mFLDbk4gvfXqVL7mts-Mpi2jjO--vtOPfDUIdFIF9qfMRqGYLjXw.yjfLvo3dsK2X8aRsnATiCfWguiEMfgIq3rBZyHpcfBc&amp;dib_tag=se&amp;keywords=iphone+14&amp;qid=1709814930&amp;sr=8-7</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Apple-MPUR3ZD-A-iPhone-128GB/dp/B0BNLXTK3P/ref=sr_1_6?dib=eyJ2IjoiMSJ9.BGAktmr72gR9_nUVnthbazT95BOUyL3X2Eqnj0wCcJgLNekmp5O9atWJcflKPG35yBqHAGiqiJJz6QrGpL6lYBnGNSN1q1wS9pMXmX6YqFPHTPcwSfY_BomOZv8S4HugB74aJOYDxgZKeP54_LNg7ivTkEBifDkaVHTJK04IappM5l9ODkjYRiDWlsYAM6gd1aZQyy-AIv67URPbzz_WakPbDOUq565Yr9bQmuKTRH9Dc2QaOmoaxnEZJR7RyhrbGFq6NJlEe_eZdoYKmKffoOPfDUIdFIF9qfMRqGYLjXw.d-TAW6POXdaLp7rtkYhTDZkx1eCzRumO0WdnUx2mSlE&amp;dib_tag=se&amp;keywords=iphone+14&amp;qid=1709811613&amp;sr=8-6</t>
+          <t>https://www.amazon.com/Apple-MPUR3ZD-A-iPhone-128GB/dp/B0BNLXTK3P/ref=sr_1_6?dib=eyJ2IjoiMSJ9.BGAktmr72gR9_nUVnthbazT95BOUyL3X2Eqnj0wCcJgLNekmp5O9atWJcflKPG35yBqHAGiqiJJz6QrGpL6lYBnGNSN1q1wS9pMXmX6YqFPHTPcwSfY_BomOZv8S4HugB74aJOYDxgZKeP54_LNg7ivTkEBifDkaVHTJK04IapprJA1PXwL6wsxKLth6hJA65WfXSoJH0eichCsxiCIRAWbwC9doGFnQiwsV5Xn0x5NsQ4QPKTHuLA-mFLDbk4gvfXqVL7mts-Mpi2jjO--vtOPfDUIdFIF9qfMRqGYLjXw.yjfLvo3dsK2X8aRsnATiCfWguiEMfgIq3rBZyHpcfBc&amp;dib_tag=se&amp;keywords=iphone+14&amp;qid=1709814930&amp;sr=8-6</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">

--- a/output/product1_amazon.xlsx
+++ b/output/product1_amazon.xlsx
@@ -483,12 +483,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 Plus (128 GB) - (Product) Red</t>
+          <t>Apple iPhone 15 (128 GB) - Negro</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B0BDJW51NW</t>
+          <t>B0CHWV5HTM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -503,22 +503,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4,6 de 5 estrellas</t>
+          <t>4,4 de 5 estrellas</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.461</t>
+          <t>1.152</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NzIwMDAwNjkxNzE3MDY2OjE3MDk4MTQ5MzA6c3BfYXRmOjIwMDk2NDU2OTg0ODk4OjowOjo&amp;url=%2FApple-iPhone-14-Plus-128%2Fdp%2FB0BDJW51NW%2Fref%3Dsr_1_3%3Fdib%3DeyJ2IjoiMSJ9.BGAktmr72gR9_nUVnthbazT95BOUyL3X2Eqnj0wCcJgLNekmp5O9atWJcflKPG35yBqHAGiqiJJz6QrGpL6lYBnGNSN1q1wS9pMXmX6YqFPHTPcwSfY_BomOZv8S4HugB74aJOYDxgZKeP54_LNg7ivTkEBifDkaVHTJK04IapprJA1PXwL6wsxKLth6hJA65WfXSoJH0eichCsxiCIRAWbwC9doGFnQiwsV5Xn0x5NsQ4QPKTHuLA-mFLDbk4gvfXqVL7mts-Mpi2jjO--vtOPfDUIdFIF9qfMRqGYLjXw.yjfLvo3dsK2X8aRsnATiCfWguiEMfgIq3rBZyHpcfBc%26dib_tag%3Dse%26keywords%3Diphone%2B14%26qid%3D1709814930%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NTU5MDc3MDUxMDgyMDY2OjE3MDk4MTY4NTY6c3BfYXRmOjMwMDA1NDUyODEwMDUzMjo6MDo6&amp;url=%2FApple-iPhone-15-128-GB%2Fdp%2FB0CHWV5HTM%2Fref%3Dsr_1_4%3Fdib%3DeyJ2IjoiMSJ9.wDD6kLb6EbuFwrICyv4HzOycS-fK4pENVHc7146D8-Tqz5tkzLbZYjvP9rak10w3yhFFnNTqeSYNgUmyLtnwQsiQe7udBEpDIn8zHTtzy8czZzOj-tyYSAP_JB0KWMS5CCHqBdWXCtjyCFwwpxaV1TuZDUM6iJ3vuW8RLntQiwiGmCY7lUdvxusklMvcl-o753zp99nyJZHCLQZGjnS84Rsxid4ValYnnBVUFc_RpkRBQa4djpSSw1KFypsZ98qeZbKoPvTG9B5qDUtB6fRzWoe4dEYY4GvlJTPfL_lGEsc.-icjX5U5yzqS-fmLHTvIm13mXNKuLXX8UpQ0MhpNuTk%26dib_tag%3Dse%26keywords%3Diphone%2B14%2Bpro%26qid%3D1709816856%26sr%3D8-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/716fAVud8PL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61eEYLATF9L._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -528,57 +528,57 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 (128 GB) - Negro</t>
+          <t>iPhone 14 Pro 128GB</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B0CHWV5HTM</t>
+          <t>B0BNLZD9VX</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>959,00 €</t>
+          <t>915,20 €</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>959,00 €</t>
+          <t>915,20 €</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4,4 de 5 estrellas</t>
+          <t>4,0 de 5 estrellas</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.148</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NzIwMDAwNjkxNzE3MDY2OjE3MDk4MTQ5MzA6c3BfYXRmOjMwMDA1NDUyODEwMDUzMjo6MDo6&amp;url=%2FApple-iPhone-15-128-GB%2Fdp%2FB0CHWV5HTM%2Fref%3Dsr_1_4%3Fdib%3DeyJ2IjoiMSJ9.BGAktmr72gR9_nUVnthbazT95BOUyL3X2Eqnj0wCcJgLNekmp5O9atWJcflKPG35yBqHAGiqiJJz6QrGpL6lYBnGNSN1q1wS9pMXmX6YqFPHTPcwSfY_BomOZv8S4HugB74aJOYDxgZKeP54_LNg7ivTkEBifDkaVHTJK04IapprJA1PXwL6wsxKLth6hJA65WfXSoJH0eichCsxiCIRAWbwC9doGFnQiwsV5Xn0x5NsQ4QPKTHuLA-mFLDbk4gvfXqVL7mts-Mpi2jjO--vtOPfDUIdFIF9qfMRqGYLjXw.yjfLvo3dsK2X8aRsnATiCfWguiEMfgIq3rBZyHpcfBc%26dib_tag%3Dse%26keywords%3Diphone%2B14%26qid%3D1709814930%26sr%3D8-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/Apple-iPhone-Pro-128-Reacondicionado/dp/B0BNLZD9VX/ref=sr_1_5?dib=eyJ2IjoiMSJ9.wDD6kLb6EbuFwrICyv4HzOycS-fK4pENVHc7146D8-Tqz5tkzLbZYjvP9rak10w3yhFFnNTqeSYNgUmyLtnwQsiQe7udBEpDIn8zHTtzy8czZzOj-tyYSAP_JB0KWMS5CCHqBdWXCtjyCFwwpxaV1TuZDUM6iJ3vuW8RLntQiwiGmCY7lUdvxusklMvcl-o753zp99nyJZHCLQZGjnS84Rsxid4ValYnnBVUFc_RpkRBQa4djpSSw1KFypsZ98qeZbKoPvTG9B5qDUtB6fRzWoe4dEYY4GvlJTPfL_lGEsc.-icjX5U5yzqS-fmLHTvIm13mXNKuLXX8UpQ0MhpNuTk&amp;dib_tag=se&amp;keywords=iphone+14+pro&amp;qid=1709816856&amp;sr=8-5</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61eEYLATF9L._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61XO4bORHUL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>959</v>
+        <v>915</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 (128 GB) - Malva</t>
+          <t>Apple iPhone 14 (128 GB) - Amarillo</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B0BDJZLSDH</t>
+          <t>B0BXQ2WMVM</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -598,17 +598,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.014</t>
+          <t>5.016</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NzIwMDAwNjkxNzE3MDY2OjE3MDk4MTQ5MzA6c3BfYXRmOjIwMDk2NDU2OTgxMTk4OjowOjo&amp;url=%2FApple-iPhone-14-128-GB%2Fdp%2FB0BDJZLSDH%2Fref%3Dsr_1_1%3Fdib%3DeyJ2IjoiMSJ9.BGAktmr72gR9_nUVnthbazT95BOUyL3X2Eqnj0wCcJgLNekmp5O9atWJcflKPG35yBqHAGiqiJJz6QrGpL6lYBnGNSN1q1wS9pMXmX6YqFPHTPcwSfY_BomOZv8S4HugB74aJOYDxgZKeP54_LNg7ivTkEBifDkaVHTJK04IapprJA1PXwL6wsxKLth6hJA65WfXSoJH0eichCsxiCIRAWbwC9doGFnQiwsV5Xn0x5NsQ4QPKTHuLA-mFLDbk4gvfXqVL7mts-Mpi2jjO--vtOPfDUIdFIF9qfMRqGYLjXw.yjfLvo3dsK2X8aRsnATiCfWguiEMfgIq3rBZyHpcfBc%26dib_tag%3Dse%26keywords%3Diphone%2B14%26qid%3D1709814930%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NTU5MDc3MDUxMDgyMDY2OjE3MDk4MTY4NTY6c3BfYXRmOjIwMTI4ODkyNjA0Mzk4OjowOjo&amp;url=%2FApple-iPhone-14-128-GB%2Fdp%2FB0BXQ2WMVM%2Fref%3Dsr_1_3%3Fdib%3DeyJ2IjoiMSJ9.wDD6kLb6EbuFwrICyv4HzOycS-fK4pENVHc7146D8-Tqz5tkzLbZYjvP9rak10w3yhFFnNTqeSYNgUmyLtnwQsiQe7udBEpDIn8zHTtzy8czZzOj-tyYSAP_JB0KWMS5CCHqBdWXCtjyCFwwpxaV1TuZDUM6iJ3vuW8RLntQiwiGmCY7lUdvxusklMvcl-o753zp99nyJZHCLQZGjnS84Rsxid4ValYnnBVUFc_RpkRBQa4djpSSw1KFypsZ98qeZbKoPvTG9B5qDUtB6fRzWoe4dEYY4GvlJTPfL_lGEsc.-icjX5U5yzqS-fmLHTvIm13mXNKuLXX8UpQ0MhpNuTk%26dib_tag%3Dse%26keywords%3Diphone%2B14%2Bpro%26qid%3D1709816856%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/619f09kK7tL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61VqYcPmPLL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -618,67 +618,67 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 (128 GB) - Negro Noche</t>
+          <t>Apple iPhone 15 Pro (128 GB) - Titanio Negro</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B0BDKBLF8C</t>
+          <t>B0CHX426VG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>859,00 €</t>
+          <t>1.219,00 €</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>859,00 €</t>
+          <t>1.219,00 €</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4,6 de 5 estrellas</t>
+          <t>4,4 de 5 estrellas</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.014</t>
+          <t>1.199</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Apple-iPhone-14-128-GB/dp/B0BDKBLF8C/ref=sr_1_5?dib=eyJ2IjoiMSJ9.BGAktmr72gR9_nUVnthbazT95BOUyL3X2Eqnj0wCcJgLNekmp5O9atWJcflKPG35yBqHAGiqiJJz6QrGpL6lYBnGNSN1q1wS9pMXmX6YqFPHTPcwSfY_BomOZv8S4HugB74aJOYDxgZKeP54_LNg7ivTkEBifDkaVHTJK04IapprJA1PXwL6wsxKLth6hJA65WfXSoJH0eichCsxiCIRAWbwC9doGFnQiwsV5Xn0x5NsQ4QPKTHuLA-mFLDbk4gvfXqVL7mts-Mpi2jjO--vtOPfDUIdFIF9qfMRqGYLjXw.yjfLvo3dsK2X8aRsnATiCfWguiEMfgIq3rBZyHpcfBc&amp;dib_tag=se&amp;keywords=iphone+14&amp;qid=1709814930&amp;sr=8-5</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NTU5MDc3MDUxMDgyMDY2OjE3MDk4MTY4NTY6c3BfYXRmOjMwMDA1NDUyODEwMTkzMjo6MDo6&amp;url=%2FApple-iPhone-15-Pro-128%2Fdp%2FB0CHX426VG%2Fref%3Dsr_1_2%3Fdib%3DeyJ2IjoiMSJ9.wDD6kLb6EbuFwrICyv4HzOycS-fK4pENVHc7146D8-Tqz5tkzLbZYjvP9rak10w3yhFFnNTqeSYNgUmyLtnwQsiQe7udBEpDIn8zHTtzy8czZzOj-tyYSAP_JB0KWMS5CCHqBdWXCtjyCFwwpxaV1TuZDUM6iJ3vuW8RLntQiwiGmCY7lUdvxusklMvcl-o753zp99nyJZHCLQZGjnS84Rsxid4ValYnnBVUFc_RpkRBQa4djpSSw1KFypsZ98qeZbKoPvTG9B5qDUtB6fRzWoe4dEYY4GvlJTPfL_lGEsc.-icjX5U5yzqS-fmLHTvIm13mXNKuLXX8UpQ0MhpNuTk%26dib_tag%3Dse%26keywords%3Diphone%2B14%2Bpro%26qid%3D1709816856%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61cwywLZR-L._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/812oGW3LDdL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>859</v>
+        <v>1.219</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Apple iPhone 13 (128 GB) - Azul</t>
+          <t>Apple iPhone 14 Pro (128 GB) - Oro</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B09G9DMQ7M</t>
+          <t>B0BDKQJ14P</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>739,00 €</t>
+          <t>Sin Información</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>739,00 €</t>
+          <t>Sin Información</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -688,77 +688,77 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>10.558</t>
+          <t>3.679</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NzIwMDAwNjkxNzE3MDY2OjE3MDk4MTQ5MzA6c3BfYXRmOjIwMDg0NjQxOTc0NjA0OjowOjo&amp;url=%2FApple-iPhone-13-128-GB-Azul%2Fdp%2FB09G9DMQ7M%2Fref%3Dsr_1_2%3Fdib%3DeyJ2IjoiMSJ9.BGAktmr72gR9_nUVnthbazT95BOUyL3X2Eqnj0wCcJgLNekmp5O9atWJcflKPG35yBqHAGiqiJJz6QrGpL6lYBnGNSN1q1wS9pMXmX6YqFPHTPcwSfY_BomOZv8S4HugB74aJOYDxgZKeP54_LNg7ivTkEBifDkaVHTJK04IapprJA1PXwL6wsxKLth6hJA65WfXSoJH0eichCsxiCIRAWbwC9doGFnQiwsV5Xn0x5NsQ4QPKTHuLA-mFLDbk4gvfXqVL7mts-Mpi2jjO--vtOPfDUIdFIF9qfMRqGYLjXw.yjfLvo3dsK2X8aRsnATiCfWguiEMfgIq3rBZyHpcfBc%26dib_tag%3Dse%26keywords%3Diphone%2B14%26qid%3D1709814930%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NTU5MDc3MDUxMDgyMDY2OjE3MDk4MTY4NTY6c3BfYXRmOjIwMDk2NDY4Nzk3MDk4OjowOjo&amp;url=%2FApple-iPhone-14-Pro-128%2Fdp%2FB0BDKQJ14P%2Fref%3Dsr_1_1%3Fdib%3DeyJ2IjoiMSJ9.wDD6kLb6EbuFwrICyv4HzOycS-fK4pENVHc7146D8-Tqz5tkzLbZYjvP9rak10w3yhFFnNTqeSYNgUmyLtnwQsiQe7udBEpDIn8zHTtzy8czZzOj-tyYSAP_JB0KWMS5CCHqBdWXCtjyCFwwpxaV1TuZDUM6iJ3vuW8RLntQiwiGmCY7lUdvxusklMvcl-o753zp99nyJZHCLQZGjnS84Rsxid4ValYnnBVUFc_RpkRBQa4djpSSw1KFypsZ98qeZbKoPvTG9B5qDUtB6fRzWoe4dEYY4GvlJTPfL_lGEsc.-icjX5U5yzqS-fmLHTvIm13mXNKuLXX8UpQ0MhpNuTk%26dib_tag%3Dse%26keywords%3Diphone%2B14%2Bpro%26qid%3D1709816856%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71dpTXFz+dL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71ZDY57yTQL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Apple iPhone 13 (128 GB) - en Medianoche</t>
+          <t>iPhone 14 Pro 256GB</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B09G995PVT</t>
+          <t>B0BNM1R46Q</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>739,00 €</t>
+          <t>Sin Información</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>739,00 €</t>
+          <t>Sin Información</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4,7 de 5 estrellas</t>
+          <t>4,1 de 5 estrellas</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>10.558</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Apple-iPhone-13-128-GB-en-Medianoche/dp/B09G995PVT/ref=sr_1_7?dib=eyJ2IjoiMSJ9.BGAktmr72gR9_nUVnthbazT95BOUyL3X2Eqnj0wCcJgLNekmp5O9atWJcflKPG35yBqHAGiqiJJz6QrGpL6lYBnGNSN1q1wS9pMXmX6YqFPHTPcwSfY_BomOZv8S4HugB74aJOYDxgZKeP54_LNg7ivTkEBifDkaVHTJK04IapprJA1PXwL6wsxKLth6hJA65WfXSoJH0eichCsxiCIRAWbwC9doGFnQiwsV5Xn0x5NsQ4QPKTHuLA-mFLDbk4gvfXqVL7mts-Mpi2jjO--vtOPfDUIdFIF9qfMRqGYLjXw.yjfLvo3dsK2X8aRsnATiCfWguiEMfgIq3rBZyHpcfBc&amp;dib_tag=se&amp;keywords=iphone+14&amp;qid=1709814930&amp;sr=8-7</t>
+          <t>https://www.amazon.com/Apple-MQ1F3ZD-A-iPhone-256GB/dp/B0BNM1R46Q/ref=sr_1_6?dib=eyJ2IjoiMSJ9.wDD6kLb6EbuFwrICyv4HzOycS-fK4pENVHc7146D8-Tqz5tkzLbZYjvP9rak10w3yhFFnNTqeSYNgUmyLtnwQsiQe7udBEpDIn8zHTtzy8czZzOj-tyYSAP_JB0KWMS5CCHqBdWXCtjyCFwwpxaV1TuZDUM6iJ3vuW8RLntQiwiGmCY7lUdvxusklMvcl-o753zp99nyJZHCLQZGjnS84Rsxid4ValYnnBVUFc_RpkRBQa4djpSSw1KFypsZ98qeZbKoPvTG9B5qDUtB6fRzWoe4dEYY4GvlJTPfL_lGEsc.-icjX5U5yzqS-fmLHTvIm13mXNKuLXX8UpQ0MhpNuTk&amp;dib_tag=se&amp;keywords=iphone+14+pro&amp;qid=1709816856&amp;sr=8-6</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/616dWFinzLL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61HHS0HrjpL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>iPhone 14 128GB</t>
+          <t>iPhone 14 Pro 256GB</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B0BNLXTK3P</t>
+          <t>B0BNMC76TQ</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -773,22 +773,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3,9 de 5 estrellas</t>
+          <t>3,4 de 5 estrellas</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Apple-MPUR3ZD-A-iPhone-128GB/dp/B0BNLXTK3P/ref=sr_1_6?dib=eyJ2IjoiMSJ9.BGAktmr72gR9_nUVnthbazT95BOUyL3X2Eqnj0wCcJgLNekmp5O9atWJcflKPG35yBqHAGiqiJJz6QrGpL6lYBnGNSN1q1wS9pMXmX6YqFPHTPcwSfY_BomOZv8S4HugB74aJOYDxgZKeP54_LNg7ivTkEBifDkaVHTJK04IapprJA1PXwL6wsxKLth6hJA65WfXSoJH0eichCsxiCIRAWbwC9doGFnQiwsV5Xn0x5NsQ4QPKTHuLA-mFLDbk4gvfXqVL7mts-Mpi2jjO--vtOPfDUIdFIF9qfMRqGYLjXw.yjfLvo3dsK2X8aRsnATiCfWguiEMfgIq3rBZyHpcfBc&amp;dib_tag=se&amp;keywords=iphone+14&amp;qid=1709814930&amp;sr=8-6</t>
+          <t>https://www.amazon.com/Apple-MQ183ZD-A-iPhone-256GB/dp/B0BNMC76TQ/ref=sr_1_7?dib=eyJ2IjoiMSJ9.wDD6kLb6EbuFwrICyv4HzOycS-fK4pENVHc7146D8-Tqz5tkzLbZYjvP9rak10w3yhFFnNTqeSYNgUmyLtnwQsiQe7udBEpDIn8zHTtzy8czZzOj-tyYSAP_JB0KWMS5CCHqBdWXCtjyCFwwpxaV1TuZDUM6iJ3vuW8RLntQiwiGmCY7lUdvxusklMvcl-o753zp99nyJZHCLQZGjnS84Rsxid4ValYnnBVUFc_RpkRBQa4djpSSw1KFypsZ98qeZbKoPvTG9B5qDUtB6fRzWoe4dEYY4GvlJTPfL_lGEsc.-icjX5U5yzqS-fmLHTvIm13mXNKuLXX8UpQ0MhpNuTk&amp;dib_tag=se&amp;keywords=iphone+14+pro&amp;qid=1709816856&amp;sr=8-7</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51+SLoh3kzL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71ZDY57yTQL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I8" t="n">

--- a/output/product1_amazon.xlsx
+++ b/output/product1_amazon.xlsx
@@ -483,12 +483,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 (128 GB) - Negro</t>
+          <t>Apple iPhone 14 Plus (128 GB) - (Product) Red</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B0CHWV5HTM</t>
+          <t>B0BDJW51NW</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -503,22 +503,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4,4 de 5 estrellas</t>
+          <t>4,6 de 5 estrellas</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.152</t>
+          <t>1.462</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NTU5MDc3MDUxMDgyMDY2OjE3MDk4MTY4NTY6c3BfYXRmOjMwMDA1NDUyODEwMDUzMjo6MDo6&amp;url=%2FApple-iPhone-15-128-GB%2Fdp%2FB0CHWV5HTM%2Fref%3Dsr_1_4%3Fdib%3DeyJ2IjoiMSJ9.wDD6kLb6EbuFwrICyv4HzOycS-fK4pENVHc7146D8-Tqz5tkzLbZYjvP9rak10w3yhFFnNTqeSYNgUmyLtnwQsiQe7udBEpDIn8zHTtzy8czZzOj-tyYSAP_JB0KWMS5CCHqBdWXCtjyCFwwpxaV1TuZDUM6iJ3vuW8RLntQiwiGmCY7lUdvxusklMvcl-o753zp99nyJZHCLQZGjnS84Rsxid4ValYnnBVUFc_RpkRBQa4djpSSw1KFypsZ98qeZbKoPvTG9B5qDUtB6fRzWoe4dEYY4GvlJTPfL_lGEsc.-icjX5U5yzqS-fmLHTvIm13mXNKuLXX8UpQ0MhpNuTk%26dib_tag%3Dse%26keywords%3Diphone%2B14%2Bpro%26qid%3D1709816856%26sr%3D8-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MzU1ODI3OTI4OTMwNjY6MTcwOTgxODUyNDpzcF9hdGY6MjAwOTY0NTY5ODQ4OTg6OjA6Og&amp;url=%2FApple-iPhone-14-Plus-128%2Fdp%2FB0BDJW51NW%2Fref%3Dsr_1_3%3Fdib%3DeyJ2IjoiMSJ9.BGAktmr72gR9_nUVnthbazT95BOUyL3X2Eqnj0wCcJgLNekmp5O9atWJcflKPG35yBqHAGiqiJJz6QrGpL6lYGVvJAKV9V_GZaXMlekvoPcRYk3Q56mbl38Wu2lZTy-DQMArkEnIoiSZzhvPNm1DB--tPk4n9zpZa9x7GkWtdiEhTrEYUrxic_x22xnUDDnQoBTl2hhG8qlnd7SuK5SGFi8CPObzlrtDSRadxEWjY75NJhmIvE1OoTtIwxPJEytoCBI-cAcl20O_159gudcL5Mec0G01JfeX0-YMhe66zBM.pZ_ELilhs7Gw6G5wumdZhndm6FIV5n28J1okvrig_z8%26dib_tag%3Dse%26keywords%3Diphone%2B14%26qid%3D1709818524%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61eEYLATF9L._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/716fAVud8PL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -528,57 +528,57 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>iPhone 14 Pro 128GB</t>
+          <t>Apple iPhone 15 (128 GB) - Negro</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B0BNLZD9VX</t>
+          <t>B0CHWV5HTM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>915,20 €</t>
+          <t>959,00 €</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>915,20 €</t>
+          <t>959,00 €</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4,0 de 5 estrellas</t>
+          <t>4,4 de 5 estrellas</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>1.157</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Apple-iPhone-Pro-128-Reacondicionado/dp/B0BNLZD9VX/ref=sr_1_5?dib=eyJ2IjoiMSJ9.wDD6kLb6EbuFwrICyv4HzOycS-fK4pENVHc7146D8-Tqz5tkzLbZYjvP9rak10w3yhFFnNTqeSYNgUmyLtnwQsiQe7udBEpDIn8zHTtzy8czZzOj-tyYSAP_JB0KWMS5CCHqBdWXCtjyCFwwpxaV1TuZDUM6iJ3vuW8RLntQiwiGmCY7lUdvxusklMvcl-o753zp99nyJZHCLQZGjnS84Rsxid4ValYnnBVUFc_RpkRBQa4djpSSw1KFypsZ98qeZbKoPvTG9B5qDUtB6fRzWoe4dEYY4GvlJTPfL_lGEsc.-icjX5U5yzqS-fmLHTvIm13mXNKuLXX8UpQ0MhpNuTk&amp;dib_tag=se&amp;keywords=iphone+14+pro&amp;qid=1709816856&amp;sr=8-5</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MzU1ODI3OTI4OTMwNjY6MTcwOTgxODUyNDpzcF9hdGY6MzAwMDU0NTI4MTAwNTMyOjowOjo&amp;url=%2FApple-iPhone-15-128-GB%2Fdp%2FB0CHWV5HTM%2Fref%3Dsr_1_4%3Fdib%3DeyJ2IjoiMSJ9.BGAktmr72gR9_nUVnthbazT95BOUyL3X2Eqnj0wCcJgLNekmp5O9atWJcflKPG35yBqHAGiqiJJz6QrGpL6lYGVvJAKV9V_GZaXMlekvoPcRYk3Q56mbl38Wu2lZTy-DQMArkEnIoiSZzhvPNm1DB--tPk4n9zpZa9x7GkWtdiEhTrEYUrxic_x22xnUDDnQoBTl2hhG8qlnd7SuK5SGFi8CPObzlrtDSRadxEWjY75NJhmIvE1OoTtIwxPJEytoCBI-cAcl20O_159gudcL5Mec0G01JfeX0-YMhe66zBM.pZ_ELilhs7Gw6G5wumdZhndm6FIV5n28J1okvrig_z8%26dib_tag%3Dse%26keywords%3Diphone%2B14%26qid%3D1709818524%26sr%3D8-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61XO4bORHUL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61eEYLATF9L._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>915</v>
+        <v>959</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 (128 GB) - Amarillo</t>
+          <t>Apple iPhone 14 (128 GB) - Malva</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B0BXQ2WMVM</t>
+          <t>B0BDJZLSDH</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -598,17 +598,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.016</t>
+          <t>5.018</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NTU5MDc3MDUxMDgyMDY2OjE3MDk4MTY4NTY6c3BfYXRmOjIwMTI4ODkyNjA0Mzk4OjowOjo&amp;url=%2FApple-iPhone-14-128-GB%2Fdp%2FB0BXQ2WMVM%2Fref%3Dsr_1_3%3Fdib%3DeyJ2IjoiMSJ9.wDD6kLb6EbuFwrICyv4HzOycS-fK4pENVHc7146D8-Tqz5tkzLbZYjvP9rak10w3yhFFnNTqeSYNgUmyLtnwQsiQe7udBEpDIn8zHTtzy8czZzOj-tyYSAP_JB0KWMS5CCHqBdWXCtjyCFwwpxaV1TuZDUM6iJ3vuW8RLntQiwiGmCY7lUdvxusklMvcl-o753zp99nyJZHCLQZGjnS84Rsxid4ValYnnBVUFc_RpkRBQa4djpSSw1KFypsZ98qeZbKoPvTG9B5qDUtB6fRzWoe4dEYY4GvlJTPfL_lGEsc.-icjX5U5yzqS-fmLHTvIm13mXNKuLXX8UpQ0MhpNuTk%26dib_tag%3Dse%26keywords%3Diphone%2B14%2Bpro%26qid%3D1709816856%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MzU1ODI3OTI4OTMwNjY6MTcwOTgxODUyNDpzcF9hdGY6MjAwOTY0NTY5ODExOTg6OjA6Og&amp;url=%2FApple-iPhone-14-128-GB%2Fdp%2FB0BDJZLSDH%2Fref%3Dsr_1_1%3Fdib%3DeyJ2IjoiMSJ9.BGAktmr72gR9_nUVnthbazT95BOUyL3X2Eqnj0wCcJgLNekmp5O9atWJcflKPG35yBqHAGiqiJJz6QrGpL6lYGVvJAKV9V_GZaXMlekvoPcRYk3Q56mbl38Wu2lZTy-DQMArkEnIoiSZzhvPNm1DB--tPk4n9zpZa9x7GkWtdiEhTrEYUrxic_x22xnUDDnQoBTl2hhG8qlnd7SuK5SGFi8CPObzlrtDSRadxEWjY75NJhmIvE1OoTtIwxPJEytoCBI-cAcl20O_159gudcL5Mec0G01JfeX0-YMhe66zBM.pZ_ELilhs7Gw6G5wumdZhndm6FIV5n28J1okvrig_z8%26dib_tag%3Dse%26keywords%3Diphone%2B14%26qid%3D1709818524%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61VqYcPmPLL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/619f09kK7tL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -618,67 +618,67 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 Pro (128 GB) - Titanio Negro</t>
+          <t>Apple iPhone 14 (128 GB) - Negro Noche</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B0CHX426VG</t>
+          <t>B0BDKBLF8C</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.219,00 €</t>
+          <t>859,00 €</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.219,00 €</t>
+          <t>859,00 €</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4,4 de 5 estrellas</t>
+          <t>4,6 de 5 estrellas</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.199</t>
+          <t>5.018</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NTU5MDc3MDUxMDgyMDY2OjE3MDk4MTY4NTY6c3BfYXRmOjMwMDA1NDUyODEwMTkzMjo6MDo6&amp;url=%2FApple-iPhone-15-Pro-128%2Fdp%2FB0CHX426VG%2Fref%3Dsr_1_2%3Fdib%3DeyJ2IjoiMSJ9.wDD6kLb6EbuFwrICyv4HzOycS-fK4pENVHc7146D8-Tqz5tkzLbZYjvP9rak10w3yhFFnNTqeSYNgUmyLtnwQsiQe7udBEpDIn8zHTtzy8czZzOj-tyYSAP_JB0KWMS5CCHqBdWXCtjyCFwwpxaV1TuZDUM6iJ3vuW8RLntQiwiGmCY7lUdvxusklMvcl-o753zp99nyJZHCLQZGjnS84Rsxid4ValYnnBVUFc_RpkRBQa4djpSSw1KFypsZ98qeZbKoPvTG9B5qDUtB6fRzWoe4dEYY4GvlJTPfL_lGEsc.-icjX5U5yzqS-fmLHTvIm13mXNKuLXX8UpQ0MhpNuTk%26dib_tag%3Dse%26keywords%3Diphone%2B14%2Bpro%26qid%3D1709816856%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/Apple-iPhone-14-128-GB/dp/B0BDKBLF8C/ref=sr_1_5?dib=eyJ2IjoiMSJ9.BGAktmr72gR9_nUVnthbazT95BOUyL3X2Eqnj0wCcJgLNekmp5O9atWJcflKPG35yBqHAGiqiJJz6QrGpL6lYGVvJAKV9V_GZaXMlekvoPcRYk3Q56mbl38Wu2lZTy-DQMArkEnIoiSZzhvPNm1DB--tPk4n9zpZa9x7GkWtdiEhTrEYUrxic_x22xnUDDnQoBTl2hhG8qlnd7SuK5SGFi8CPObzlrtDSRadxEWjY75NJhmIvE1OoTtIwxPJEytoCBI-cAcl20O_159gudcL5Mec0G01JfeX0-YMhe66zBM.pZ_ELilhs7Gw6G5wumdZhndm6FIV5n28J1okvrig_z8&amp;dib_tag=se&amp;keywords=iphone+14&amp;qid=1709818524&amp;sr=8-5</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/812oGW3LDdL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61cwywLZR-L._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1.219</v>
+        <v>859</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 Pro (128 GB) - Oro</t>
+          <t>Apple iPhone 13 (128 GB) - Azul</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B0BDKQJ14P</t>
+          <t>B09G9DMQ7M</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sin Información</t>
+          <t>739,00 €</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sin Información</t>
+          <t>739,00 €</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -688,77 +688,77 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.679</t>
+          <t>10.568</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NTU5MDc3MDUxMDgyMDY2OjE3MDk4MTY4NTY6c3BfYXRmOjIwMDk2NDY4Nzk3MDk4OjowOjo&amp;url=%2FApple-iPhone-14-Pro-128%2Fdp%2FB0BDKQJ14P%2Fref%3Dsr_1_1%3Fdib%3DeyJ2IjoiMSJ9.wDD6kLb6EbuFwrICyv4HzOycS-fK4pENVHc7146D8-Tqz5tkzLbZYjvP9rak10w3yhFFnNTqeSYNgUmyLtnwQsiQe7udBEpDIn8zHTtzy8czZzOj-tyYSAP_JB0KWMS5CCHqBdWXCtjyCFwwpxaV1TuZDUM6iJ3vuW8RLntQiwiGmCY7lUdvxusklMvcl-o753zp99nyJZHCLQZGjnS84Rsxid4ValYnnBVUFc_RpkRBQa4djpSSw1KFypsZ98qeZbKoPvTG9B5qDUtB6fRzWoe4dEYY4GvlJTPfL_lGEsc.-icjX5U5yzqS-fmLHTvIm13mXNKuLXX8UpQ0MhpNuTk%26dib_tag%3Dse%26keywords%3Diphone%2B14%2Bpro%26qid%3D1709816856%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MzU1ODI3OTI4OTMwNjY6MTcwOTgxODUyNDpzcF9hdGY6MjAwODQ2NDE5NzQ2MDQ6OjA6Og&amp;url=%2FApple-iPhone-13-128-GB-Azul%2Fdp%2FB09G9DMQ7M%2Fref%3Dsr_1_2%3Fdib%3DeyJ2IjoiMSJ9.BGAktmr72gR9_nUVnthbazT95BOUyL3X2Eqnj0wCcJgLNekmp5O9atWJcflKPG35yBqHAGiqiJJz6QrGpL6lYGVvJAKV9V_GZaXMlekvoPcRYk3Q56mbl38Wu2lZTy-DQMArkEnIoiSZzhvPNm1DB--tPk4n9zpZa9x7GkWtdiEhTrEYUrxic_x22xnUDDnQoBTl2hhG8qlnd7SuK5SGFi8CPObzlrtDSRadxEWjY75NJhmIvE1OoTtIwxPJEytoCBI-cAcl20O_159gudcL5Mec0G01JfeX0-YMhe66zBM.pZ_ELilhs7Gw6G5wumdZhndm6FIV5n28J1okvrig_z8%26dib_tag%3Dse%26keywords%3Diphone%2B14%26qid%3D1709818524%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71ZDY57yTQL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71dpTXFz+dL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>739</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>iPhone 14 Pro 256GB</t>
+          <t>Apple iPhone 13 (128 GB) - en Medianoche</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B0BNM1R46Q</t>
+          <t>B09G995PVT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sin Información</t>
+          <t>739,00 €</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sin Información</t>
+          <t>739,00 €</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4,1 de 5 estrellas</t>
+          <t>4,7 de 5 estrellas</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>10.568</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Apple-MQ1F3ZD-A-iPhone-256GB/dp/B0BNM1R46Q/ref=sr_1_6?dib=eyJ2IjoiMSJ9.wDD6kLb6EbuFwrICyv4HzOycS-fK4pENVHc7146D8-Tqz5tkzLbZYjvP9rak10w3yhFFnNTqeSYNgUmyLtnwQsiQe7udBEpDIn8zHTtzy8czZzOj-tyYSAP_JB0KWMS5CCHqBdWXCtjyCFwwpxaV1TuZDUM6iJ3vuW8RLntQiwiGmCY7lUdvxusklMvcl-o753zp99nyJZHCLQZGjnS84Rsxid4ValYnnBVUFc_RpkRBQa4djpSSw1KFypsZ98qeZbKoPvTG9B5qDUtB6fRzWoe4dEYY4GvlJTPfL_lGEsc.-icjX5U5yzqS-fmLHTvIm13mXNKuLXX8UpQ0MhpNuTk&amp;dib_tag=se&amp;keywords=iphone+14+pro&amp;qid=1709816856&amp;sr=8-6</t>
+          <t>https://www.amazon.com/Apple-iPhone-13-128-GB-en-Medianoche/dp/B09G995PVT/ref=sr_1_7?dib=eyJ2IjoiMSJ9.BGAktmr72gR9_nUVnthbazT95BOUyL3X2Eqnj0wCcJgLNekmp5O9atWJcflKPG35yBqHAGiqiJJz6QrGpL6lYGVvJAKV9V_GZaXMlekvoPcRYk3Q56mbl38Wu2lZTy-DQMArkEnIoiSZzhvPNm1DB--tPk4n9zpZa9x7GkWtdiEhTrEYUrxic_x22xnUDDnQoBTl2hhG8qlnd7SuK5SGFi8CPObzlrtDSRadxEWjY75NJhmIvE1OoTtIwxPJEytoCBI-cAcl20O_159gudcL5Mec0G01JfeX0-YMhe66zBM.pZ_ELilhs7Gw6G5wumdZhndm6FIV5n28J1okvrig_z8&amp;dib_tag=se&amp;keywords=iphone+14&amp;qid=1709818524&amp;sr=8-7</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61HHS0HrjpL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/616dWFinzLL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>739</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>iPhone 14 Pro 256GB</t>
+          <t>iPhone 14 128GB</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B0BNMC76TQ</t>
+          <t>B0BNLXTK3P</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -773,22 +773,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3,4 de 5 estrellas</t>
+          <t>3,9 de 5 estrellas</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Apple-MQ183ZD-A-iPhone-256GB/dp/B0BNMC76TQ/ref=sr_1_7?dib=eyJ2IjoiMSJ9.wDD6kLb6EbuFwrICyv4HzOycS-fK4pENVHc7146D8-Tqz5tkzLbZYjvP9rak10w3yhFFnNTqeSYNgUmyLtnwQsiQe7udBEpDIn8zHTtzy8czZzOj-tyYSAP_JB0KWMS5CCHqBdWXCtjyCFwwpxaV1TuZDUM6iJ3vuW8RLntQiwiGmCY7lUdvxusklMvcl-o753zp99nyJZHCLQZGjnS84Rsxid4ValYnnBVUFc_RpkRBQa4djpSSw1KFypsZ98qeZbKoPvTG9B5qDUtB6fRzWoe4dEYY4GvlJTPfL_lGEsc.-icjX5U5yzqS-fmLHTvIm13mXNKuLXX8UpQ0MhpNuTk&amp;dib_tag=se&amp;keywords=iphone+14+pro&amp;qid=1709816856&amp;sr=8-7</t>
+          <t>https://www.amazon.com/Apple-MPUR3ZD-A-iPhone-128GB/dp/B0BNLXTK3P/ref=sr_1_6?dib=eyJ2IjoiMSJ9.BGAktmr72gR9_nUVnthbazT95BOUyL3X2Eqnj0wCcJgLNekmp5O9atWJcflKPG35yBqHAGiqiJJz6QrGpL6lYGVvJAKV9V_GZaXMlekvoPcRYk3Q56mbl38Wu2lZTy-DQMArkEnIoiSZzhvPNm1DB--tPk4n9zpZa9x7GkWtdiEhTrEYUrxic_x22xnUDDnQoBTl2hhG8qlnd7SuK5SGFi8CPObzlrtDSRadxEWjY75NJhmIvE1OoTtIwxPJEytoCBI-cAcl20O_159gudcL5Mec0G01JfeX0-YMhe66zBM.pZ_ELilhs7Gw6G5wumdZhndm6FIV5n28J1okvrig_z8&amp;dib_tag=se&amp;keywords=iphone+14&amp;qid=1709818524&amp;sr=8-6</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71ZDY57yTQL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51+SLoh3kzL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I8" t="n">

--- a/output/product1_amazon.xlsx
+++ b/output/product1_amazon.xlsx
@@ -483,157 +483,157 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 (128 GB) - Negro</t>
+          <t>Garmin EPIX 2, Reloj GPS Multideporte con Pantalla táctil AMOLED, Funciones Superiores, frecuencia cardíaca, mapas y música, TU EU</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B0CHWV5HTM</t>
+          <t>B09M49ZC8R</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>959,00 €</t>
+          <t>899,99 €</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>959,00 €</t>
+          <t>899,99 €</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4,4 de 5 estrellas</t>
+          <t>4,5 de 5 estrellas</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.152</t>
+          <t>816</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NTU5MDc3MDUxMDgyMDY2OjE3MDk4MTY4NTY6c3BfYXRmOjMwMDA1NDUyODEwMDUzMjo6MDo6&amp;url=%2FApple-iPhone-15-128-GB%2Fdp%2FB0CHWV5HTM%2Fref%3Dsr_1_4%3Fdib%3DeyJ2IjoiMSJ9.wDD6kLb6EbuFwrICyv4HzOycS-fK4pENVHc7146D8-Tqz5tkzLbZYjvP9rak10w3yhFFnNTqeSYNgUmyLtnwQsiQe7udBEpDIn8zHTtzy8czZzOj-tyYSAP_JB0KWMS5CCHqBdWXCtjyCFwwpxaV1TuZDUM6iJ3vuW8RLntQiwiGmCY7lUdvxusklMvcl-o753zp99nyJZHCLQZGjnS84Rsxid4ValYnnBVUFc_RpkRBQa4djpSSw1KFypsZ98qeZbKoPvTG9B5qDUtB6fRzWoe4dEYY4GvlJTPfL_lGEsc.-icjX5U5yzqS-fmLHTvIm13mXNKuLXX8UpQ0MhpNuTk%26dib_tag%3Dse%26keywords%3Diphone%2B14%2Bpro%26qid%3D1709816856%26sr%3D8-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/Garmin-EPIX-Multideporte-Superiores-frecuencia/dp/B09M49ZC8R/ref=sr_1_5?dib=eyJ2IjoiMSJ9.VN9XE9H4mhkk2OLL67UzLNFem-dd2Mj8mTSdQ69bmMKThepa0Ng8jsWDFIY_oaJ3gKJjZt5q6xWDFtRG8RVGaZmWM2GPrDbyCOFaGp_AgJ4SWCiRNRIRPQ-IfricBRvOm2OU33XkEErA2mhPZsmj6n-Cjafe37qCXWcvPG69pQM7MHMyQUrSH6W4v3bs40KSKCC3IJnDX4Rw92HJ1hQGdL8-loGbbp794i1xtsl_RZSUedt6RXgdxSczlKJxMjSpFmmUiCSBfGb62T_hpswF-gxz55189dlHHkVdCMP4Pk8.IyjJjXUQKqVoTbgAz5p5eP6ttqdeWIXj34yjytH-gvM&amp;dib_tag=se&amp;keywords=garmin+fenix&amp;qid=1709828171&amp;sr=8-5</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61eEYLATF9L._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81fRnXFuYML._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>959</v>
+        <v>899</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>iPhone 14 Pro 128GB</t>
+          <t>Garmin fēnix ​​7 - Reloj GPS multideporte con pantalla táctil y funciones superiores, frecuencia cardíaca, mapas y música, Gris Plata</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B0BNLZD9VX</t>
+          <t>B09M47HFCQ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>915,20 €</t>
+          <t>699,99 €</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>915,20 €</t>
+          <t>699,99 €</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4,0 de 5 estrellas</t>
+          <t>4,7 de 5 estrellas</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>3.118</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Apple-iPhone-Pro-128-Reacondicionado/dp/B0BNLZD9VX/ref=sr_1_5?dib=eyJ2IjoiMSJ9.wDD6kLb6EbuFwrICyv4HzOycS-fK4pENVHc7146D8-Tqz5tkzLbZYjvP9rak10w3yhFFnNTqeSYNgUmyLtnwQsiQe7udBEpDIn8zHTtzy8czZzOj-tyYSAP_JB0KWMS5CCHqBdWXCtjyCFwwpxaV1TuZDUM6iJ3vuW8RLntQiwiGmCY7lUdvxusklMvcl-o753zp99nyJZHCLQZGjnS84Rsxid4ValYnnBVUFc_RpkRBQa4djpSSw1KFypsZ98qeZbKoPvTG9B5qDUtB6fRzWoe4dEYY4GvlJTPfL_lGEsc.-icjX5U5yzqS-fmLHTvIm13mXNKuLXX8UpQ0MhpNuTk&amp;dib_tag=se&amp;keywords=iphone+14+pro&amp;qid=1709816856&amp;sr=8-5</t>
+          <t>https://www.amazon.com/Garmin-f%C4%93nix-multideporte-superiores-frecuencia/dp/B09M47HFCQ/ref=sr_1_3?dib=eyJ2IjoiMSJ9.VN9XE9H4mhkk2OLL67UzLNFem-dd2Mj8mTSdQ69bmMKThepa0Ng8jsWDFIY_oaJ3gKJjZt5q6xWDFtRG8RVGaZmWM2GPrDbyCOFaGp_AgJ4SWCiRNRIRPQ-IfricBRvOm2OU33XkEErA2mhPZsmj6n-Cjafe37qCXWcvPG69pQM7MHMyQUrSH6W4v3bs40KSKCC3IJnDX4Rw92HJ1hQGdL8-loGbbp794i1xtsl_RZSUedt6RXgdxSczlKJxMjSpFmmUiCSBfGb62T_hpswF-gxz55189dlHHkVdCMP4Pk8.IyjJjXUQKqVoTbgAz5p5eP6ttqdeWIXj34yjytH-gvM&amp;dib_tag=se&amp;keywords=garmin+fenix&amp;qid=1709828171&amp;sr=8-3</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61XO4bORHUL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61N991OuF1L._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>915</v>
+        <v>699</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 (128 GB) - Amarillo</t>
+          <t>Garmin fēnix 6 - Reloj GPS multideporte definitivo con sensores, VO2 Max, frecuencia cardíaca, carga de entrenamiento, Plateado con correa negra</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B0BXQ2WMVM</t>
+          <t>B07VVM1VM6</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>859,00 €</t>
+          <t>599,99 €</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>859,00 €</t>
+          <t>599,99 €</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4,6 de 5 estrellas</t>
+          <t>4,5 de 5 estrellas</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.016</t>
+          <t>1.795</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NTU5MDc3MDUxMDgyMDY2OjE3MDk4MTY4NTY6c3BfYXRmOjIwMTI4ODkyNjA0Mzk4OjowOjo&amp;url=%2FApple-iPhone-14-128-GB%2Fdp%2FB0BXQ2WMVM%2Fref%3Dsr_1_3%3Fdib%3DeyJ2IjoiMSJ9.wDD6kLb6EbuFwrICyv4HzOycS-fK4pENVHc7146D8-Tqz5tkzLbZYjvP9rak10w3yhFFnNTqeSYNgUmyLtnwQsiQe7udBEpDIn8zHTtzy8czZzOj-tyYSAP_JB0KWMS5CCHqBdWXCtjyCFwwpxaV1TuZDUM6iJ3vuW8RLntQiwiGmCY7lUdvxusklMvcl-o753zp99nyJZHCLQZGjnS84Rsxid4ValYnnBVUFc_RpkRBQa4djpSSw1KFypsZ98qeZbKoPvTG9B5qDUtB6fRzWoe4dEYY4GvlJTPfL_lGEsc.-icjX5U5yzqS-fmLHTvIm13mXNKuLXX8UpQ0MhpNuTk%26dib_tag%3Dse%26keywords%3Diphone%2B14%2Bpro%26qid%3D1709816856%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/Garmin-multideporte-definitivo-ajustados-entrenamiento/dp/B07VVM1VM6/ref=sr_1_6?dib=eyJ2IjoiMSJ9.VN9XE9H4mhkk2OLL67UzLNFem-dd2Mj8mTSdQ69bmMKThepa0Ng8jsWDFIY_oaJ3gKJjZt5q6xWDFtRG8RVGaZmWM2GPrDbyCOFaGp_AgJ4SWCiRNRIRPQ-IfricBRvOm2OU33XkEErA2mhPZsmj6n-Cjafe37qCXWcvPG69pQM7MHMyQUrSH6W4v3bs40KSKCC3IJnDX4Rw92HJ1hQGdL8-loGbbp794i1xtsl_RZSUedt6RXgdxSczlKJxMjSpFmmUiCSBfGb62T_hpswF-gxz55189dlHHkVdCMP4Pk8.IyjJjXUQKqVoTbgAz5p5eP6ttqdeWIXj34yjytH-gvM&amp;dib_tag=se&amp;keywords=garmin+fenix&amp;qid=1709828171&amp;sr=8-6</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61VqYcPmPLL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61P7MFT55UL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>859</v>
+        <v>599</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 Pro (128 GB) - Titanio Negro</t>
+          <t>Garmin Fenix 5 - Reloj multideporte, con GPS y medidor de frecuencia cardiaca, lente de cristal y bisel de acero inoxidable, 47 mm, con 2 correas Negra y Roja</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B0CHX426VG</t>
+          <t>B07K6XZP8K</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.219,00 €</t>
+          <t>549,99 €</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.219,00 €</t>
+          <t>549,99 €</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -643,122 +643,122 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.199</t>
+          <t>4.362</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NTU5MDc3MDUxMDgyMDY2OjE3MDk4MTY4NTY6c3BfYXRmOjMwMDA1NDUyODEwMTkzMjo6MDo6&amp;url=%2FApple-iPhone-15-Pro-128%2Fdp%2FB0CHX426VG%2Fref%3Dsr_1_2%3Fdib%3DeyJ2IjoiMSJ9.wDD6kLb6EbuFwrICyv4HzOycS-fK4pENVHc7146D8-Tqz5tkzLbZYjvP9rak10w3yhFFnNTqeSYNgUmyLtnwQsiQe7udBEpDIn8zHTtzy8czZzOj-tyYSAP_JB0KWMS5CCHqBdWXCtjyCFwwpxaV1TuZDUM6iJ3vuW8RLntQiwiGmCY7lUdvxusklMvcl-o753zp99nyJZHCLQZGjnS84Rsxid4ValYnnBVUFc_RpkRBQa4djpSSw1KFypsZ98qeZbKoPvTG9B5qDUtB6fRzWoe4dEYY4GvlJTPfL_lGEsc.-icjX5U5yzqS-fmLHTvIm13mXNKuLXX8UpQ0MhpNuTk%26dib_tag%3Dse%26keywords%3Diphone%2B14%2Bpro%26qid%3D1709816856%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/Garmin-Fenix-multideporte-frecuencia-inoxidable/dp/B07K6XZP8K/ref=sr_1_4?dib=eyJ2IjoiMSJ9.VN9XE9H4mhkk2OLL67UzLNFem-dd2Mj8mTSdQ69bmMKThepa0Ng8jsWDFIY_oaJ3gKJjZt5q6xWDFtRG8RVGaZmWM2GPrDbyCOFaGp_AgJ4SWCiRNRIRPQ-IfricBRvOm2OU33XkEErA2mhPZsmj6n-Cjafe37qCXWcvPG69pQM7MHMyQUrSH6W4v3bs40KSKCC3IJnDX4Rw92HJ1hQGdL8-loGbbp794i1xtsl_RZSUedt6RXgdxSczlKJxMjSpFmmUiCSBfGb62T_hpswF-gxz55189dlHHkVdCMP4Pk8.IyjJjXUQKqVoTbgAz5p5eP6ttqdeWIXj34yjytH-gvM&amp;dib_tag=se&amp;keywords=garmin+fenix&amp;qid=1709828171&amp;sr=8-4</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/812oGW3LDdL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81pQylS98eL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1.219</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 Pro (128 GB) - Oro</t>
+          <t>Garmin Vívoactive 5, Smartwatch con GPS, Pantalla AMOLED, Funciones Esenciales de Salud y Forma física y hasta 11 días de autonomía</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B0BDKQJ14P</t>
+          <t>B0CG6NR413</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sin Información</t>
+          <t>299,99 €</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sin Información</t>
+          <t>299,99 €</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4,7 de 5 estrellas</t>
+          <t>4,5 de 5 estrellas</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.679</t>
+          <t>787</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NTU5MDc3MDUxMDgyMDY2OjE3MDk4MTY4NTY6c3BfYXRmOjIwMDk2NDY4Nzk3MDk4OjowOjo&amp;url=%2FApple-iPhone-14-Pro-128%2Fdp%2FB0BDKQJ14P%2Fref%3Dsr_1_1%3Fdib%3DeyJ2IjoiMSJ9.wDD6kLb6EbuFwrICyv4HzOycS-fK4pENVHc7146D8-Tqz5tkzLbZYjvP9rak10w3yhFFnNTqeSYNgUmyLtnwQsiQe7udBEpDIn8zHTtzy8czZzOj-tyYSAP_JB0KWMS5CCHqBdWXCtjyCFwwpxaV1TuZDUM6iJ3vuW8RLntQiwiGmCY7lUdvxusklMvcl-o753zp99nyJZHCLQZGjnS84Rsxid4ValYnnBVUFc_RpkRBQa4djpSSw1KFypsZ98qeZbKoPvTG9B5qDUtB6fRzWoe4dEYY4GvlJTPfL_lGEsc.-icjX5U5yzqS-fmLHTvIm13mXNKuLXX8UpQ0MhpNuTk%26dib_tag%3Dse%26keywords%3Diphone%2B14%2Bpro%26qid%3D1709816856%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/Garmin-V%C3%ADvoactive-Smartwatch-Funciones-Esenciales/dp/B0CG6NR413/ref=sr_1_7?dib=eyJ2IjoiMSJ9.VN9XE9H4mhkk2OLL67UzLNFem-dd2Mj8mTSdQ69bmMKThepa0Ng8jsWDFIY_oaJ3gKJjZt5q6xWDFtRG8RVGaZmWM2GPrDbyCOFaGp_AgJ4SWCiRNRIRPQ-IfricBRvOm2OU33XkEErA2mhPZsmj6n-Cjafe37qCXWcvPG69pQM7MHMyQUrSH6W4v3bs40KSKCC3IJnDX4Rw92HJ1hQGdL8-loGbbp794i1xtsl_RZSUedt6RXgdxSczlKJxMjSpFmmUiCSBfGb62T_hpswF-gxz55189dlHHkVdCMP4Pk8.IyjJjXUQKqVoTbgAz5p5eP6ttqdeWIXj34yjytH-gvM&amp;dib_tag=se&amp;keywords=garmin+fenix&amp;qid=1709828171&amp;sr=8-7</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71ZDY57yTQL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61sthu+YkAL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>iPhone 14 Pro 256GB</t>
+          <t>Pack de 2 Cargadores para Garmin Fenix 5 5S 5X Plus - Forerunner 935,Approach S60 X10 S10,Quatix 5 Sapphire,Vivoactive 3 Music,Vivosport, D2 Charlie,D2 Delta,Instinct,Impact,Tactix Charlie</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B0BNM1R46Q</t>
+          <t>B07512DV9Z</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sin Información</t>
+          <t>3,95 €</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sin Información</t>
+          <t>3,95 €</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4,1 de 5 estrellas</t>
+          <t>4,4 de 5 estrellas</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29.998</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Apple-MQ1F3ZD-A-iPhone-256GB/dp/B0BNM1R46Q/ref=sr_1_6?dib=eyJ2IjoiMSJ9.wDD6kLb6EbuFwrICyv4HzOycS-fK4pENVHc7146D8-Tqz5tkzLbZYjvP9rak10w3yhFFnNTqeSYNgUmyLtnwQsiQe7udBEpDIn8zHTtzy8czZzOj-tyYSAP_JB0KWMS5CCHqBdWXCtjyCFwwpxaV1TuZDUM6iJ3vuW8RLntQiwiGmCY7lUdvxusklMvcl-o753zp99nyJZHCLQZGjnS84Rsxid4ValYnnBVUFc_RpkRBQa4djpSSw1KFypsZ98qeZbKoPvTG9B5qDUtB6fRzWoe4dEYY4GvlJTPfL_lGEsc.-icjX5U5yzqS-fmLHTvIm13mXNKuLXX8UpQ0MhpNuTk&amp;dib_tag=se&amp;keywords=iphone+14+pro&amp;qid=1709816856&amp;sr=8-6</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2Njk5OTk0MTA2MzUxMDY2OjE3MDk4MjgxNzE6c3BfYXRmOjIwMDYwMTk3NTIxNDk4OjowOjo&amp;url=%2FPack-Cargadores-para-Garmin-Fenix%2Fdp%2FB07512DV9Z%2Fref%3Dsr_1_1%3Fdib%3DeyJ2IjoiMSJ9.VN9XE9H4mhkk2OLL67UzLNFem-dd2Mj8mTSdQ69bmMKThepa0Ng8jsWDFIY_oaJ3gKJjZt5q6xWDFtRG8RVGaZmWM2GPrDbyCOFaGp_AgJ4SWCiRNRIRPQ-IfricBRvOm2OU33XkEErA2mhPZsmj6n-Cjafe37qCXWcvPG69pQM7MHMyQUrSH6W4v3bs40KSKCC3IJnDX4Rw92HJ1hQGdL8-loGbbp794i1xtsl_RZSUedt6RXgdxSczlKJxMjSpFmmUiCSBfGb62T_hpswF-gxz55189dlHHkVdCMP4Pk8.IyjJjXUQKqVoTbgAz5p5eP6ttqdeWIXj34yjytH-gvM%26dib_tag%3Dse%26keywords%3Dgarmin%2Bfenix%26qid%3D1709828171%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61HHS0HrjpL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/510QOdXlEWL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>iPhone 14 Pro 256GB</t>
+          <t>Amazfit T-Rex Ultra SmartWatch Reloj Deportivo Premium Multideporte con GPS Navegación en Tiempo Real Ejercicio de Fuerza 160+ Modos Deportivos Frecuencia cardíaca Monitoreo SpO2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B0BNMC76TQ</t>
+          <t>B0BW2WLYFF</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -773,22 +773,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3,4 de 5 estrellas</t>
+          <t>4,5 de 5 estrellas</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>86</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Apple-MQ183ZD-A-iPhone-256GB/dp/B0BNMC76TQ/ref=sr_1_7?dib=eyJ2IjoiMSJ9.wDD6kLb6EbuFwrICyv4HzOycS-fK4pENVHc7146D8-Tqz5tkzLbZYjvP9rak10w3yhFFnNTqeSYNgUmyLtnwQsiQe7udBEpDIn8zHTtzy8czZzOj-tyYSAP_JB0KWMS5CCHqBdWXCtjyCFwwpxaV1TuZDUM6iJ3vuW8RLntQiwiGmCY7lUdvxusklMvcl-o753zp99nyJZHCLQZGjnS84Rsxid4ValYnnBVUFc_RpkRBQa4djpSSw1KFypsZ98qeZbKoPvTG9B5qDUtB6fRzWoe4dEYY4GvlJTPfL_lGEsc.-icjX5U5yzqS-fmLHTvIm13mXNKuLXX8UpQ0MhpNuTk&amp;dib_tag=se&amp;keywords=iphone+14+pro&amp;qid=1709816856&amp;sr=8-7</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2Njk5OTk0MTA2MzUxMDY2OjE3MDk4MjgxNzE6c3BfYXRmOjMwMDAxODgzMTU3MjYzMjo6MDo6&amp;url=%2FAmazfit-T-Rex-Ultra-SmartWatch-Multideporte%2Fdp%2FB0BW2WLYFF%2Fref%3Dsr_1_2%3Fdib%3DeyJ2IjoiMSJ9.VN9XE9H4mhkk2OLL67UzLNFem-dd2Mj8mTSdQ69bmMKThepa0Ng8jsWDFIY_oaJ3gKJjZt5q6xWDFtRG8RVGaZmWM2GPrDbyCOFaGp_AgJ4SWCiRNRIRPQ-IfricBRvOm2OU33XkEErA2mhPZsmj6n-Cjafe37qCXWcvPG69pQM7MHMyQUrSH6W4v3bs40KSKCC3IJnDX4Rw92HJ1hQGdL8-loGbbp794i1xtsl_RZSUedt6RXgdxSczlKJxMjSpFmmUiCSBfGb62T_hpswF-gxz55189dlHHkVdCMP4Pk8.IyjJjXUQKqVoTbgAz5p5eP6ttqdeWIXj34yjytH-gvM%26dib_tag%3Dse%26keywords%3Dgarmin%2Bfenix%26qid%3D1709828171%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71ZDY57yTQL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71w6yIZ4i4L._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I8" t="n">

--- a/output/product1_amazon.xlsx
+++ b/output/product1_amazon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,316 +483,46 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Garmin EPIX 2, Reloj GPS Multideporte con Pantalla táctil AMOLED, Funciones Superiores, frecuencia cardíaca, mapas y música, TU EU</t>
+          <t>Apple iPhone 15 (128 GB) - Negro</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B09M49ZC8R</t>
+          <t>B0CHWV5HTM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>899,99 €</t>
+          <t>959,00 €</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>899,99 €</t>
+          <t>959,00 €</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4,5 de 5 estrellas</t>
+          <t>4,4 de 5 estrellas</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>1.402</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Garmin-EPIX-Multideporte-Superiores-frecuencia/dp/B09M49ZC8R/ref=sr_1_5?dib=eyJ2IjoiMSJ9.VN9XE9H4mhkk2OLL67UzLNFem-dd2Mj8mTSdQ69bmMKThepa0Ng8jsWDFIY_oaJ3gKJjZt5q6xWDFtRG8RVGaZmWM2GPrDbyCOFaGp_AgJ4SWCiRNRIRPQ-IfricBRvOm2OU33XkEErA2mhPZsmj6n-Cjafe37qCXWcvPG69pQM7MHMyQUrSH6W4v3bs40KSKCC3IJnDX4Rw92HJ1hQGdL8-loGbbp794i1xtsl_RZSUedt6RXgdxSczlKJxMjSpFmmUiCSBfGb62T_hpswF-gxz55189dlHHkVdCMP4Pk8.IyjJjXUQKqVoTbgAz5p5eP6ttqdeWIXj34yjytH-gvM&amp;dib_tag=se&amp;keywords=garmin+fenix&amp;qid=1709828171&amp;sr=8-5</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MTg2MTA5NDMzNDY2MDk4OjE3MTI1NzMwMjY6c3BfYXRmOjMwMDA1NDUyODEwMDUzMjo6MDo6&amp;url=%2FApple-iPhone-15-128-GB%2Fdp%2FB0CHWV5HTM%2Fref%3Dsr_1_1_sspa%3Fdib%3DeyJ2IjoiMSJ9.NFmArrEBgFlH-BvLk4uLguP_ic1z3aHqJ5CguhpS5lNjqy4BwDfLWI4vnrD9KHQUFSttwxLC4d58c6gODCbw_5xOVaCJNRL6jp4S7_N32TPhEzhP-Jz3yHJMSfxkXh0wwlmBTGaaWXN9bHN7a0YNQa4RC9oGwyFk-2vk1E75xBG2UTSX2fMN-q0LykcL7tfWQKdCVDoZ1kNAF2LOeKj-JIi2Pcb3mlwkH-b-6AtOCE_80TQEKbF6kk_exi7G9ApwOyqc3fbhQ7mQqQQOlPjT8MavZ_mYSnsTP0ktNW7ZIYU.SmSsq4qSa5HUvCyPE9uP4lm6YIs7XJt4y0BiL_7FPRQ%26dib_tag%3Dse%26keywords%3Diphone%26qid%3D1712573026%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81fRnXFuYML._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61eEYLATF9L._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Garmin fēnix ​​7 - Reloj GPS multideporte con pantalla táctil y funciones superiores, frecuencia cardíaca, mapas y música, Gris Plata</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>B09M47HFCQ</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>699,99 €</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>699,99 €</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>4,7 de 5 estrellas</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.118</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://www.amazon.com/Garmin-f%C4%93nix-multideporte-superiores-frecuencia/dp/B09M47HFCQ/ref=sr_1_3?dib=eyJ2IjoiMSJ9.VN9XE9H4mhkk2OLL67UzLNFem-dd2Mj8mTSdQ69bmMKThepa0Ng8jsWDFIY_oaJ3gKJjZt5q6xWDFtRG8RVGaZmWM2GPrDbyCOFaGp_AgJ4SWCiRNRIRPQ-IfricBRvOm2OU33XkEErA2mhPZsmj6n-Cjafe37qCXWcvPG69pQM7MHMyQUrSH6W4v3bs40KSKCC3IJnDX4Rw92HJ1hQGdL8-loGbbp794i1xtsl_RZSUedt6RXgdxSczlKJxMjSpFmmUiCSBfGb62T_hpswF-gxz55189dlHHkVdCMP4Pk8.IyjJjXUQKqVoTbgAz5p5eP6ttqdeWIXj34yjytH-gvM&amp;dib_tag=se&amp;keywords=garmin+fenix&amp;qid=1709828171&amp;sr=8-3</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/61N991OuF1L._AC_UL320_.jpg</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Garmin fēnix 6 - Reloj GPS multideporte definitivo con sensores, VO2 Max, frecuencia cardíaca, carga de entrenamiento, Plateado con correa negra</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>B07VVM1VM6</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>599,99 €</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>599,99 €</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4,5 de 5 estrellas</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.795</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://www.amazon.com/Garmin-multideporte-definitivo-ajustados-entrenamiento/dp/B07VVM1VM6/ref=sr_1_6?dib=eyJ2IjoiMSJ9.VN9XE9H4mhkk2OLL67UzLNFem-dd2Mj8mTSdQ69bmMKThepa0Ng8jsWDFIY_oaJ3gKJjZt5q6xWDFtRG8RVGaZmWM2GPrDbyCOFaGp_AgJ4SWCiRNRIRPQ-IfricBRvOm2OU33XkEErA2mhPZsmj6n-Cjafe37qCXWcvPG69pQM7MHMyQUrSH6W4v3bs40KSKCC3IJnDX4Rw92HJ1hQGdL8-loGbbp794i1xtsl_RZSUedt6RXgdxSczlKJxMjSpFmmUiCSBfGb62T_hpswF-gxz55189dlHHkVdCMP4Pk8.IyjJjXUQKqVoTbgAz5p5eP6ttqdeWIXj34yjytH-gvM&amp;dib_tag=se&amp;keywords=garmin+fenix&amp;qid=1709828171&amp;sr=8-6</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/61P7MFT55UL._AC_UL320_.jpg</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Garmin Fenix 5 - Reloj multideporte, con GPS y medidor de frecuencia cardiaca, lente de cristal y bisel de acero inoxidable, 47 mm, con 2 correas Negra y Roja</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>B07K6XZP8K</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>549,99 €</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>549,99 €</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4,4 de 5 estrellas</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.362</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://www.amazon.com/Garmin-Fenix-multideporte-frecuencia-inoxidable/dp/B07K6XZP8K/ref=sr_1_4?dib=eyJ2IjoiMSJ9.VN9XE9H4mhkk2OLL67UzLNFem-dd2Mj8mTSdQ69bmMKThepa0Ng8jsWDFIY_oaJ3gKJjZt5q6xWDFtRG8RVGaZmWM2GPrDbyCOFaGp_AgJ4SWCiRNRIRPQ-IfricBRvOm2OU33XkEErA2mhPZsmj6n-Cjafe37qCXWcvPG69pQM7MHMyQUrSH6W4v3bs40KSKCC3IJnDX4Rw92HJ1hQGdL8-loGbbp794i1xtsl_RZSUedt6RXgdxSczlKJxMjSpFmmUiCSBfGb62T_hpswF-gxz55189dlHHkVdCMP4Pk8.IyjJjXUQKqVoTbgAz5p5eP6ttqdeWIXj34yjytH-gvM&amp;dib_tag=se&amp;keywords=garmin+fenix&amp;qid=1709828171&amp;sr=8-4</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/81pQylS98eL._AC_UL320_.jpg</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Garmin Vívoactive 5, Smartwatch con GPS, Pantalla AMOLED, Funciones Esenciales de Salud y Forma física y hasta 11 días de autonomía</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>B0CG6NR413</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>299,99 €</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>299,99 €</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>4,5 de 5 estrellas</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>787</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://www.amazon.com/Garmin-V%C3%ADvoactive-Smartwatch-Funciones-Esenciales/dp/B0CG6NR413/ref=sr_1_7?dib=eyJ2IjoiMSJ9.VN9XE9H4mhkk2OLL67UzLNFem-dd2Mj8mTSdQ69bmMKThepa0Ng8jsWDFIY_oaJ3gKJjZt5q6xWDFtRG8RVGaZmWM2GPrDbyCOFaGp_AgJ4SWCiRNRIRPQ-IfricBRvOm2OU33XkEErA2mhPZsmj6n-Cjafe37qCXWcvPG69pQM7MHMyQUrSH6W4v3bs40KSKCC3IJnDX4Rw92HJ1hQGdL8-loGbbp794i1xtsl_RZSUedt6RXgdxSczlKJxMjSpFmmUiCSBfGb62T_hpswF-gxz55189dlHHkVdCMP4Pk8.IyjJjXUQKqVoTbgAz5p5eP6ttqdeWIXj34yjytH-gvM&amp;dib_tag=se&amp;keywords=garmin+fenix&amp;qid=1709828171&amp;sr=8-7</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/61sthu+YkAL._AC_UL320_.jpg</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Pack de 2 Cargadores para Garmin Fenix 5 5S 5X Plus - Forerunner 935,Approach S60 X10 S10,Quatix 5 Sapphire,Vivoactive 3 Music,Vivosport, D2 Charlie,D2 Delta,Instinct,Impact,Tactix Charlie</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>B07512DV9Z</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3,95 €</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3,95 €</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4,4 de 5 estrellas</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>29.998</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2Njk5OTk0MTA2MzUxMDY2OjE3MDk4MjgxNzE6c3BfYXRmOjIwMDYwMTk3NTIxNDk4OjowOjo&amp;url=%2FPack-Cargadores-para-Garmin-Fenix%2Fdp%2FB07512DV9Z%2Fref%3Dsr_1_1%3Fdib%3DeyJ2IjoiMSJ9.VN9XE9H4mhkk2OLL67UzLNFem-dd2Mj8mTSdQ69bmMKThepa0Ng8jsWDFIY_oaJ3gKJjZt5q6xWDFtRG8RVGaZmWM2GPrDbyCOFaGp_AgJ4SWCiRNRIRPQ-IfricBRvOm2OU33XkEErA2mhPZsmj6n-Cjafe37qCXWcvPG69pQM7MHMyQUrSH6W4v3bs40KSKCC3IJnDX4Rw92HJ1hQGdL8-loGbbp794i1xtsl_RZSUedt6RXgdxSczlKJxMjSpFmmUiCSBfGb62T_hpswF-gxz55189dlHHkVdCMP4Pk8.IyjJjXUQKqVoTbgAz5p5eP6ttqdeWIXj34yjytH-gvM%26dib_tag%3Dse%26keywords%3Dgarmin%2Bfenix%26qid%3D1709828171%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/510QOdXlEWL._AC_UL320_.jpg</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Amazfit T-Rex Ultra SmartWatch Reloj Deportivo Premium Multideporte con GPS Navegación en Tiempo Real Ejercicio de Fuerza 160+ Modos Deportivos Frecuencia cardíaca Monitoreo SpO2</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>B0BW2WLYFF</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Sin Información</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Sin Información</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4,5 de 5 estrellas</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2Njk5OTk0MTA2MzUxMDY2OjE3MDk4MjgxNzE6c3BfYXRmOjMwMDAxODgzMTU3MjYzMjo6MDo6&amp;url=%2FAmazfit-T-Rex-Ultra-SmartWatch-Multideporte%2Fdp%2FB0BW2WLYFF%2Fref%3Dsr_1_2%3Fdib%3DeyJ2IjoiMSJ9.VN9XE9H4mhkk2OLL67UzLNFem-dd2Mj8mTSdQ69bmMKThepa0Ng8jsWDFIY_oaJ3gKJjZt5q6xWDFtRG8RVGaZmWM2GPrDbyCOFaGp_AgJ4SWCiRNRIRPQ-IfricBRvOm2OU33XkEErA2mhPZsmj6n-Cjafe37qCXWcvPG69pQM7MHMyQUrSH6W4v3bs40KSKCC3IJnDX4Rw92HJ1hQGdL8-loGbbp794i1xtsl_RZSUedt6RXgdxSczlKJxMjSpFmmUiCSBfGb62T_hpswF-gxz55189dlHHkVdCMP4Pk8.IyjJjXUQKqVoTbgAz5p5eP6ttqdeWIXj34yjytH-gvM%26dib_tag%3Dse%26keywords%3Dgarmin%2Bfenix%26qid%3D1709828171%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/71w6yIZ4i4L._AC_UL320_.jpg</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
+        <v>959</v>
       </c>
     </row>
   </sheetData>

--- a/output/product1_amazon.xlsx
+++ b/output/product1_amazon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,46 +483,136 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 (128 GB) - Negro</t>
+          <t>Google Pixel 8 - Smartphone Android libre con Cámara Pixel avanzada, batería con autonomía de 24 horas y potentes funciones de seguridad - Verde Liquen, 128GB</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B0CHWV5HTM</t>
+          <t>B0CGVNVD8R</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>959,00 €</t>
+          <t>799,00 €</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>959,00 €</t>
+          <t>799,00 €</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4,4 de 5 estrellas</t>
+          <t>4,1 de 5 estrellas</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.402</t>
+          <t>1.160</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MTg2MTA5NDMzNDY2MDk4OjE3MTI1NzMwMjY6c3BfYXRmOjMwMDA1NDUyODEwMDUzMjo6MDo6&amp;url=%2FApple-iPhone-15-128-GB%2Fdp%2FB0CHWV5HTM%2Fref%3Dsr_1_1_sspa%3Fdib%3DeyJ2IjoiMSJ9.NFmArrEBgFlH-BvLk4uLguP_ic1z3aHqJ5CguhpS5lNjqy4BwDfLWI4vnrD9KHQUFSttwxLC4d58c6gODCbw_5xOVaCJNRL6jp4S7_N32TPhEzhP-Jz3yHJMSfxkXh0wwlmBTGaaWXN9bHN7a0YNQa4RC9oGwyFk-2vk1E75xBG2UTSX2fMN-q0LykcL7tfWQKdCVDoZ1kNAF2LOeKj-JIi2Pcb3mlwkH-b-6AtOCE_80TQEKbF6kk_exi7G9ApwOyqc3fbhQ7mQqQQOlPjT8MavZ_mYSnsTP0ktNW7ZIYU.SmSsq4qSa5HUvCyPE9uP4lm6YIs7XJt4y0BiL_7FPRQ%26dib_tag%3Dse%26keywords%3Diphone%26qid%3D1712573026%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNjQxODM0MjA2OTEzMTIwOjE3MTQ0ODg3ODk6c3BfYXRmOjMwMDA3MzU0ODYzMzkzMjo6MDo6&amp;url=%2FGoogle-Pixel-Smartphone-autonom%25C3%25ADa-funciones%2Fdp%2FB0CGVNVD8R%2Fref%3Dsr_1_2_sspa%3Fdib%3DeyJ2IjoiMSJ9.5Qjtd8RR2j_lhtpnkQtYk3rUuEehsIQPI-fUYUuWjnJk7GdiZWEsH24wHuHDgwaNjCo5vWi07em5TMewi2UBxKpQMzf7yaDULBz50cSPCX19XGbiziAlcULFsh53VFmLFyN1Gz_w5-DB-X9LjG5GvbQRATICoVW6O28PrUIGQo3EQlXhsZLfGmCCzYsjnZRKMESxE5bt2RQyri8h_1KIG5gwDWFqLa-cWkGC6JrwKQlDKsWNX6WwCntNhP9_HSvDPCzPnXYBJhxx8I-NTx-P02kB6ldrXmXDBsaY081LVus.9NQ__UFSk22QiEz4JQcFBNQfquGhL1AhAL_3wFmEgtI%26dib_tag%3Dse%26keywords%3Dsamsung%2Bgalaxy%2Bs24%26qid%3D1714488789%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61eEYLATF9L._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71MwxwKOaYL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>959</v>
+        <v>799</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Google Pixel 8 Pro -Smartphone Android libre con lente teleobjetivo, batería con autonomía de 24 horas y pantalla Super Actua - Porcelana, 128GB</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>B0CGVTJ583</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1.099,00 €</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.099,00 €</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>4,3 de 5 estrellas</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNjQxODM0MjA2OTEzMTIwOjE3MTQ0ODg3ODk6c3BfYXRmOjMwMDA3MzUyMDgwOTIzMjo6MDo6&amp;url=%2FGoogle-Smartphone-teleobjetivo-autonom%25C3%25ADa-pantalla%2Fdp%2FB0CGVTJ583%2Fref%3Dsr_1_3_sspa%3Fdib%3DeyJ2IjoiMSJ9.5Qjtd8RR2j_lhtpnkQtYk3rUuEehsIQPI-fUYUuWjnJk7GdiZWEsH24wHuHDgwaNjCo5vWi07em5TMewi2UBxKpQMzf7yaDULBz50cSPCX19XGbiziAlcULFsh53VFmLFyN1Gz_w5-DB-X9LjG5GvbQRATICoVW6O28PrUIGQo3EQlXhsZLfGmCCzYsjnZRKMESxE5bt2RQyri8h_1KIG5gwDWFqLa-cWkGC6JrwKQlDKsWNX6WwCntNhP9_HSvDPCzPnXYBJhxx8I-NTx-P02kB6ldrXmXDBsaY081LVus.9NQ__UFSk22QiEz4JQcFBNQfquGhL1AhAL_3wFmEgtI%26dib_tag%3Dse%26keywords%3Dsamsung%2Bgalaxy%2Bs24%26qid%3D1714488789%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71DHKipDoHL._AC_UL320_.jpg</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>1.099</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy S24 15,8 cm (6.2") Double SIM 5G USB Type-C 8 Go 128 Go 4000 mAh Gris</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B0CNKGF5ZD</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Sin Información</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Sin Información</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Sin Información</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sin Información</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNjQxODM0MjA2OTEzMTIwOjE3MTQ0ODg3ODk6c3BfYXRmOjMwMDE2Mjk2NjUyMDkzMjo6MDo6&amp;url=%2FSamsung-Galaxy-Double-Type-C-4000%2Fdp%2FB0CNKGF5ZD%2Fref%3Dsr_1_1_sspa%3Fdib%3DeyJ2IjoiMSJ9.5Qjtd8RR2j_lhtpnkQtYk3rUuEehsIQPI-fUYUuWjnJk7GdiZWEsH24wHuHDgwaNjCo5vWi07em5TMewi2UBxKpQMzf7yaDULBz50cSPCX19XGbiziAlcULFsh53VFmLFyN1Gz_w5-DB-X9LjG5GvbQRATICoVW6O28PrUIGQo3EQlXhsZLfGmCCzYsjnZRKMESxE5bt2RQyri8h_1KIG5gwDWFqLa-cWkGC6JrwKQlDKsWNX6WwCntNhP9_HSvDPCzPnXYBJhxx8I-NTx-P02kB6ldrXmXDBsaY081LVus.9NQ__UFSk22QiEz4JQcFBNQfquGhL1AhAL_3wFmEgtI%26dib_tag%3Dse%26keywords%3Dsamsung%2Bgalaxy%2Bs24%26qid%3D1714488789%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/510MWzEnznL._AC_UL320_.jpg</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
